--- a/data/pca/factorExposure/factorExposure_2011-07-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02469534689218101</v>
+        <v>0.01837811195913098</v>
       </c>
       <c r="C2">
-        <v>0.004879702137793409</v>
+        <v>0.001162947091215055</v>
       </c>
       <c r="D2">
-        <v>-0.05846727658021482</v>
+        <v>-0.003630491527196268</v>
       </c>
       <c r="E2">
-        <v>-0.02078695565765037</v>
+        <v>0.03772629734151691</v>
       </c>
       <c r="F2">
-        <v>-0.01563245286752076</v>
+        <v>-0.007796093838773516</v>
       </c>
       <c r="G2">
-        <v>0.04127817538523126</v>
+        <v>-0.02046547856792483</v>
       </c>
       <c r="H2">
-        <v>-0.02918154711718056</v>
+        <v>0.02614766680271718</v>
       </c>
       <c r="I2">
-        <v>-0.04594380745887961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-0.008625787412411986</v>
+      </c>
+      <c r="J2">
+        <v>-0.002427756979605413</v>
+      </c>
+      <c r="K2">
+        <v>-0.09845360446188117</v>
+      </c>
+      <c r="L2">
+        <v>-0.04653357363418789</v>
+      </c>
+      <c r="M2">
+        <v>0.08118108244991372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.0668797393879793</v>
+        <v>0.105827731263297</v>
       </c>
       <c r="C4">
-        <v>-0.05699839472811692</v>
+        <v>-0.07639300672738671</v>
       </c>
       <c r="D4">
-        <v>-0.03803654667854175</v>
+        <v>-0.01759076792037519</v>
       </c>
       <c r="E4">
-        <v>-0.03935928902792724</v>
+        <v>0.04781577649606299</v>
       </c>
       <c r="F4">
-        <v>0.03762422925377055</v>
+        <v>-0.09566148209959871</v>
       </c>
       <c r="G4">
-        <v>0.004238178066260377</v>
+        <v>0.001731055569406387</v>
       </c>
       <c r="H4">
-        <v>0.01235673837580024</v>
+        <v>-0.08252095216721567</v>
       </c>
       <c r="I4">
-        <v>-0.001118596276437042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.03395015384919217</v>
+      </c>
+      <c r="J4">
+        <v>-0.04937843373051221</v>
+      </c>
+      <c r="K4">
+        <v>0.04697047450404123</v>
+      </c>
+      <c r="L4">
+        <v>-0.04352234328730779</v>
+      </c>
+      <c r="M4">
+        <v>0.01828218072937218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1263550180238604</v>
+        <v>0.1293950061114919</v>
       </c>
       <c r="C6">
-        <v>-0.03192811020823449</v>
+        <v>-0.0485819735456777</v>
       </c>
       <c r="D6">
-        <v>-0.07324355895464642</v>
+        <v>-0.001513799124873605</v>
       </c>
       <c r="E6">
-        <v>-0.09376041531922719</v>
+        <v>0.03138918239011002</v>
       </c>
       <c r="F6">
-        <v>0.03828340495579843</v>
+        <v>-0.03079723643614383</v>
       </c>
       <c r="G6">
-        <v>-0.1047533738881469</v>
+        <v>0.1760759589034147</v>
       </c>
       <c r="H6">
-        <v>-0.1102456191470777</v>
+        <v>-0.04091816846759204</v>
       </c>
       <c r="I6">
-        <v>0.2604242118689171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.06676727908433522</v>
+      </c>
+      <c r="J6">
+        <v>-0.4329635340280151</v>
+      </c>
+      <c r="K6">
+        <v>0.01861685178520222</v>
+      </c>
+      <c r="L6">
+        <v>0.05528053647375611</v>
+      </c>
+      <c r="M6">
+        <v>-0.09920237190067274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06472768706251232</v>
+        <v>0.07016332554276328</v>
       </c>
       <c r="C7">
-        <v>-0.0507415776494993</v>
+        <v>-0.07517432657465178</v>
       </c>
       <c r="D7">
-        <v>-0.05927060806351103</v>
+        <v>-0.002892419171430075</v>
       </c>
       <c r="E7">
-        <v>-0.03088632453818161</v>
+        <v>0.04594450557700992</v>
       </c>
       <c r="F7">
-        <v>0.02788630646120719</v>
+        <v>-0.01834834736147958</v>
       </c>
       <c r="G7">
-        <v>-0.03835570460191225</v>
+        <v>-0.002675913261932479</v>
       </c>
       <c r="H7">
-        <v>-0.001198115251427329</v>
+        <v>-0.0631888866406288</v>
       </c>
       <c r="I7">
-        <v>-0.04992435293588702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.0227223076824573</v>
+      </c>
+      <c r="J7">
+        <v>0.05048308523506973</v>
+      </c>
+      <c r="K7">
+        <v>0.06292255951086335</v>
+      </c>
+      <c r="L7">
+        <v>-0.02819477307090236</v>
+      </c>
+      <c r="M7">
+        <v>0.002509317483939187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02193601320409592</v>
+        <v>0.03513949501548953</v>
       </c>
       <c r="C8">
-        <v>-0.01513915930980807</v>
+        <v>-0.009619355241498413</v>
       </c>
       <c r="D8">
-        <v>-0.03850834319494132</v>
+        <v>-0.0170780646997102</v>
       </c>
       <c r="E8">
-        <v>-0.06450392669989137</v>
+        <v>0.05196616355294077</v>
       </c>
       <c r="F8">
-        <v>-0.0214532941224758</v>
+        <v>-0.1001615798234745</v>
       </c>
       <c r="G8">
-        <v>0.002917274957547051</v>
+        <v>0.003753863729119058</v>
       </c>
       <c r="H8">
-        <v>-0.03399607413270154</v>
+        <v>-0.06117363628273569</v>
       </c>
       <c r="I8">
-        <v>-0.04118072539768319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.03298468500414754</v>
+      </c>
+      <c r="J8">
+        <v>-0.04135716135719668</v>
+      </c>
+      <c r="K8">
+        <v>0.04125320122314117</v>
+      </c>
+      <c r="L8">
+        <v>-0.0799442181741216</v>
+      </c>
+      <c r="M8">
+        <v>0.0007509967755438437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.06777476641431586</v>
+        <v>0.08517187120729239</v>
       </c>
       <c r="C9">
-        <v>-0.07496363184695359</v>
+        <v>-0.06848877516165845</v>
       </c>
       <c r="D9">
-        <v>-0.04216692448485019</v>
+        <v>0.000790831385532252</v>
       </c>
       <c r="E9">
-        <v>-0.02397543989377315</v>
+        <v>0.0311852970272436</v>
       </c>
       <c r="F9">
-        <v>0.02248290804335674</v>
+        <v>-0.09802934862463937</v>
       </c>
       <c r="G9">
-        <v>0.009481493588718673</v>
+        <v>-0.007538998890350711</v>
       </c>
       <c r="H9">
-        <v>0.01257299221877684</v>
+        <v>-0.07878659219170506</v>
       </c>
       <c r="I9">
-        <v>-0.01470482632027592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.005764679442629947</v>
+      </c>
+      <c r="J9">
+        <v>-0.02509453766546286</v>
+      </c>
+      <c r="K9">
+        <v>0.01860415420859147</v>
+      </c>
+      <c r="L9">
+        <v>-0.02243614782408047</v>
+      </c>
+      <c r="M9">
+        <v>-0.004432009154199123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06470354749015778</v>
+        <v>0.1072198837787935</v>
       </c>
       <c r="C10">
-        <v>0.1360731029935469</v>
+        <v>0.1701888756795004</v>
       </c>
       <c r="D10">
-        <v>-0.05468318267927347</v>
+        <v>-0.008878012443019372</v>
       </c>
       <c r="E10">
-        <v>-0.02822715359872339</v>
+        <v>0.04325386458565442</v>
       </c>
       <c r="F10">
-        <v>0.001152697468172226</v>
+        <v>0.01652446861414567</v>
       </c>
       <c r="G10">
-        <v>-0.0406486555695544</v>
+        <v>0.005547003265684739</v>
       </c>
       <c r="H10">
-        <v>-0.043126250836129</v>
+        <v>0.002506160946945072</v>
       </c>
       <c r="I10">
-        <v>0.009329640239656666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.04542120180761933</v>
+      </c>
+      <c r="J10">
+        <v>0.05730883999611187</v>
+      </c>
+      <c r="K10">
+        <v>0.002414702568485401</v>
+      </c>
+      <c r="L10">
+        <v>0.02285269943243834</v>
+      </c>
+      <c r="M10">
+        <v>-0.0461727702991037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06262194192242812</v>
+        <v>0.06661634825902235</v>
       </c>
       <c r="C11">
-        <v>-0.09021533579609729</v>
+        <v>-0.07088652398633621</v>
       </c>
       <c r="D11">
-        <v>-0.04079360329004307</v>
+        <v>0.03073312236665056</v>
       </c>
       <c r="E11">
-        <v>0.00260611914867306</v>
+        <v>0.02010376161685172</v>
       </c>
       <c r="F11">
-        <v>-0.02427536450750805</v>
+        <v>-0.1037300561742342</v>
       </c>
       <c r="G11">
-        <v>0.02996870215565419</v>
+        <v>-0.01943284011681028</v>
       </c>
       <c r="H11">
-        <v>0.01168262580128055</v>
+        <v>-0.05475740967360276</v>
       </c>
       <c r="I11">
-        <v>-0.07454922398974446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.01844465990282645</v>
+      </c>
+      <c r="J11">
+        <v>0.08071082724853683</v>
+      </c>
+      <c r="K11">
+        <v>-0.04881812041036075</v>
+      </c>
+      <c r="L11">
+        <v>0.01454988045458511</v>
+      </c>
+      <c r="M11">
+        <v>-0.04819162211969077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05681676052479018</v>
+        <v>0.0691729221871076</v>
       </c>
       <c r="C12">
-        <v>-0.05517219779372148</v>
+        <v>-0.06248639440556836</v>
       </c>
       <c r="D12">
-        <v>-0.01704682337861126</v>
+        <v>0.02940378583513692</v>
       </c>
       <c r="E12">
-        <v>-0.008017741483079859</v>
+        <v>0.0138030012469096</v>
       </c>
       <c r="F12">
-        <v>0.01593989112797479</v>
+        <v>-0.1127354512489498</v>
       </c>
       <c r="G12">
-        <v>-0.01040449393590056</v>
+        <v>-0.007530709676190683</v>
       </c>
       <c r="H12">
-        <v>0.01739535985998967</v>
+        <v>-0.06984879292227003</v>
       </c>
       <c r="I12">
-        <v>-0.07580600845968256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.006332279245014747</v>
+      </c>
+      <c r="J12">
+        <v>0.06784679682670161</v>
+      </c>
+      <c r="K12">
+        <v>-0.0560416609511953</v>
+      </c>
+      <c r="L12">
+        <v>-0.03804983157668459</v>
+      </c>
+      <c r="M12">
+        <v>-0.08373737591622407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05212987804422407</v>
+        <v>0.04921309607897779</v>
       </c>
       <c r="C13">
-        <v>-0.01611820098799348</v>
+        <v>-0.03476084737617052</v>
       </c>
       <c r="D13">
-        <v>-0.01038429042479622</v>
+        <v>-0.02146337694010011</v>
       </c>
       <c r="E13">
-        <v>-0.0187716476965082</v>
+        <v>0.01461194331539571</v>
       </c>
       <c r="F13">
-        <v>-0.003019453775765933</v>
+        <v>-0.04258823079037179</v>
       </c>
       <c r="G13">
-        <v>0.04528417701553982</v>
+        <v>-0.03214863259926524</v>
       </c>
       <c r="H13">
-        <v>0.05715441401503266</v>
+        <v>-0.03195378855166418</v>
       </c>
       <c r="I13">
-        <v>0.003587616136369238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.02448612283738531</v>
+      </c>
+      <c r="J13">
+        <v>0.003531121273441553</v>
+      </c>
+      <c r="K13">
+        <v>0.06548159281473707</v>
+      </c>
+      <c r="L13">
+        <v>-0.05256838618670791</v>
+      </c>
+      <c r="M13">
+        <v>-0.004190848201183488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04154338735207803</v>
+        <v>0.04660413290389576</v>
       </c>
       <c r="C14">
-        <v>-0.02265060027590298</v>
+        <v>-0.02919432128735411</v>
       </c>
       <c r="D14">
-        <v>-0.02041585533359927</v>
+        <v>0.009563445605414693</v>
       </c>
       <c r="E14">
-        <v>-0.005405502263201216</v>
+        <v>0.01623253566124568</v>
       </c>
       <c r="F14">
-        <v>0.04831410526115059</v>
+        <v>-0.04854077982484224</v>
       </c>
       <c r="G14">
-        <v>-0.01033746557089407</v>
+        <v>-0.04054225868718025</v>
       </c>
       <c r="H14">
-        <v>-0.04421571831828351</v>
+        <v>-0.06067468256386771</v>
       </c>
       <c r="I14">
-        <v>0.03658016761704757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.01640279776565793</v>
+      </c>
+      <c r="J14">
+        <v>-0.03907382281395021</v>
+      </c>
+      <c r="K14">
+        <v>0.06091425803687656</v>
+      </c>
+      <c r="L14">
+        <v>-0.01461370379612555</v>
+      </c>
+      <c r="M14">
+        <v>0.01472435364528444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03580315350663998</v>
+        <v>0.03124659599409952</v>
       </c>
       <c r="C15">
-        <v>0.002049429625526325</v>
+        <v>-0.009946639912452745</v>
       </c>
       <c r="D15">
-        <v>0.003848499895444516</v>
+        <v>-0.0586405489237133</v>
       </c>
       <c r="E15">
-        <v>-0.02746763159718217</v>
+        <v>0.004053726304857052</v>
       </c>
       <c r="F15">
-        <v>0.02575028859575579</v>
+        <v>-0.001566756636495134</v>
       </c>
       <c r="G15">
-        <v>0.005435212771252654</v>
+        <v>0.01780894228630319</v>
       </c>
       <c r="H15">
-        <v>0.01625532875533249</v>
+        <v>-0.02558037035894898</v>
       </c>
       <c r="I15">
-        <v>0.012941606116399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.05196026449203096</v>
+      </c>
+      <c r="J15">
+        <v>-0.04362593297909843</v>
+      </c>
+      <c r="K15">
+        <v>0.04869682695751262</v>
+      </c>
+      <c r="L15">
+        <v>0.001796128366305783</v>
+      </c>
+      <c r="M15">
+        <v>-0.009262663189749653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04656090891077343</v>
+        <v>0.06989044637189962</v>
       </c>
       <c r="C16">
-        <v>-0.08404622403616067</v>
+        <v>-0.07753076867006289</v>
       </c>
       <c r="D16">
-        <v>-0.02905656100667989</v>
+        <v>0.01996101814886901</v>
       </c>
       <c r="E16">
-        <v>-0.01886599580977927</v>
+        <v>0.02301124311852391</v>
       </c>
       <c r="F16">
-        <v>0.02587392009432453</v>
+        <v>-0.1020405128715774</v>
       </c>
       <c r="G16">
-        <v>0.02937630509209539</v>
+        <v>-0.02279307064553326</v>
       </c>
       <c r="H16">
-        <v>-4.624092124067329e-05</v>
+        <v>-0.07854602152778044</v>
       </c>
       <c r="I16">
-        <v>-0.09146935719382229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.01909548780905007</v>
+      </c>
+      <c r="J16">
+        <v>0.07422894261660923</v>
+      </c>
+      <c r="K16">
+        <v>-0.0278844261735255</v>
+      </c>
+      <c r="L16">
+        <v>-0.01468889566916622</v>
+      </c>
+      <c r="M16">
+        <v>-0.02920267436592044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03785100287446688</v>
+        <v>0.04213092616301315</v>
       </c>
       <c r="C20">
-        <v>-0.04256740011767006</v>
+        <v>-0.03103058208987775</v>
       </c>
       <c r="D20">
-        <v>-0.02208813670669808</v>
+        <v>-0.02209203678948594</v>
       </c>
       <c r="E20">
-        <v>-0.01139081290138866</v>
+        <v>0.02191834511784942</v>
       </c>
       <c r="F20">
-        <v>0.02874716681238216</v>
+        <v>-0.04798062536163857</v>
       </c>
       <c r="G20">
-        <v>0.02716070594951211</v>
+        <v>-0.02678658515056622</v>
       </c>
       <c r="H20">
-        <v>0.01117718304247783</v>
+        <v>-0.06564037478485611</v>
       </c>
       <c r="I20">
-        <v>-0.03109393684574734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.001434348045103842</v>
+      </c>
+      <c r="J20">
+        <v>0.0005300225869841437</v>
+      </c>
+      <c r="K20">
+        <v>0.01948976086802865</v>
+      </c>
+      <c r="L20">
+        <v>-0.06527145647323801</v>
+      </c>
+      <c r="M20">
+        <v>-0.02812699174419751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.008192067156919626</v>
+        <v>0.02500705064223858</v>
       </c>
       <c r="C21">
-        <v>0.001926447781054972</v>
+        <v>-0.01264043245982305</v>
       </c>
       <c r="D21">
-        <v>0.006074383264995323</v>
+        <v>-0.01629281995717723</v>
       </c>
       <c r="E21">
-        <v>-0.08896954508966191</v>
+        <v>0.0141165160420157</v>
       </c>
       <c r="F21">
-        <v>-0.0285377944819894</v>
+        <v>-0.05494984000621529</v>
       </c>
       <c r="G21">
-        <v>-0.08119320739036474</v>
+        <v>0.09930162541504534</v>
       </c>
       <c r="H21">
-        <v>0.03128891427511863</v>
+        <v>-0.04413884695341125</v>
       </c>
       <c r="I21">
-        <v>0.052631366747417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.002560900183706746</v>
+      </c>
+      <c r="J21">
+        <v>-0.01195355630514881</v>
+      </c>
+      <c r="K21">
+        <v>0.1129032488590158</v>
+      </c>
+      <c r="L21">
+        <v>0.02976788643759708</v>
+      </c>
+      <c r="M21">
+        <v>-0.08581403834415731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.02799557877839939</v>
+        <v>0.04190148638876672</v>
       </c>
       <c r="C22">
-        <v>-0.05407387057804112</v>
+        <v>-0.0328072438192178</v>
       </c>
       <c r="D22">
-        <v>0.09955172429523662</v>
+        <v>-0.6550874405660122</v>
       </c>
       <c r="E22">
-        <v>-0.4693041521683023</v>
+        <v>0.05941715431814204</v>
       </c>
       <c r="F22">
-        <v>0.1838015815858475</v>
+        <v>0.08263526656333534</v>
       </c>
       <c r="G22">
-        <v>0.04781296367604049</v>
+        <v>-0.0250340867917404</v>
       </c>
       <c r="H22">
-        <v>0.279438485200651</v>
+        <v>0.0344098295676054</v>
       </c>
       <c r="I22">
-        <v>-0.027883728164671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.1387169851707989</v>
+      </c>
+      <c r="J22">
+        <v>0.04365088294234119</v>
+      </c>
+      <c r="K22">
+        <v>0.04219355390781495</v>
+      </c>
+      <c r="L22">
+        <v>0.03451838636681082</v>
+      </c>
+      <c r="M22">
+        <v>0.03532657507597437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.02890694791564544</v>
+        <v>0.04260764451147236</v>
       </c>
       <c r="C23">
-        <v>-0.0528243746297649</v>
+        <v>-0.03304505297021238</v>
       </c>
       <c r="D23">
-        <v>0.09904943114360328</v>
+        <v>-0.6567194325425181</v>
       </c>
       <c r="E23">
-        <v>-0.4707842581700376</v>
+        <v>0.06050665207415932</v>
       </c>
       <c r="F23">
-        <v>0.1807151381224642</v>
+        <v>0.07793564425091289</v>
       </c>
       <c r="G23">
-        <v>0.04720626393143928</v>
+        <v>-0.02519328906225727</v>
       </c>
       <c r="H23">
-        <v>0.2759955324577826</v>
+        <v>0.03553974097530542</v>
       </c>
       <c r="I23">
-        <v>-0.02670070452407605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.1387681990678463</v>
+      </c>
+      <c r="J23">
+        <v>0.03837265215523718</v>
+      </c>
+      <c r="K23">
+        <v>0.03889473907997492</v>
+      </c>
+      <c r="L23">
+        <v>0.03555790093956059</v>
+      </c>
+      <c r="M23">
+        <v>0.03632483517401684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06685063422571608</v>
+        <v>0.07509781973578238</v>
       </c>
       <c r="C24">
-        <v>-0.0807726415165337</v>
+        <v>-0.07534416063615323</v>
       </c>
       <c r="D24">
-        <v>-0.04755740492582625</v>
+        <v>0.01704136558471008</v>
       </c>
       <c r="E24">
-        <v>-0.03101391625687781</v>
+        <v>0.02680777186712809</v>
       </c>
       <c r="F24">
-        <v>-0.0116036979115842</v>
+        <v>-0.1089688639639025</v>
       </c>
       <c r="G24">
-        <v>0.01788970899072878</v>
+        <v>-0.01015797016666273</v>
       </c>
       <c r="H24">
-        <v>-0.0001170335476404894</v>
+        <v>-0.06240983652730592</v>
       </c>
       <c r="I24">
-        <v>-0.05559576750934409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.02693425583245296</v>
+      </c>
+      <c r="J24">
+        <v>0.05565283986501344</v>
+      </c>
+      <c r="K24">
+        <v>-0.04499209977053388</v>
+      </c>
+      <c r="L24">
+        <v>-0.000825098567570199</v>
+      </c>
+      <c r="M24">
+        <v>-0.05912053537172517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.05894036013534355</v>
+        <v>0.07200426253478436</v>
       </c>
       <c r="C25">
-        <v>-0.04110019437715436</v>
+        <v>-0.04875472558310427</v>
       </c>
       <c r="D25">
-        <v>-0.0407242913312491</v>
+        <v>0.03053743909458208</v>
       </c>
       <c r="E25">
-        <v>-0.03407467327174955</v>
+        <v>0.02689188321974212</v>
       </c>
       <c r="F25">
-        <v>0.007117308363133658</v>
+        <v>-0.1104304292618703</v>
       </c>
       <c r="G25">
-        <v>0.0324635866127097</v>
+        <v>-0.0299650435504953</v>
       </c>
       <c r="H25">
-        <v>-0.0279030410046082</v>
+        <v>-0.07746448709943465</v>
       </c>
       <c r="I25">
-        <v>-0.03325531387962576</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.03472573357595355</v>
+      </c>
+      <c r="J25">
+        <v>0.05177906272838834</v>
+      </c>
+      <c r="K25">
+        <v>-0.07147422950258479</v>
+      </c>
+      <c r="L25">
+        <v>-0.007115376037691724</v>
+      </c>
+      <c r="M25">
+        <v>-0.0405415687043616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03522893937186666</v>
+        <v>0.03922256380966227</v>
       </c>
       <c r="C26">
-        <v>-0.0205346935742753</v>
+        <v>-0.02369913746169755</v>
       </c>
       <c r="D26">
-        <v>-0.04225119163329873</v>
+        <v>-0.0130084260769385</v>
       </c>
       <c r="E26">
-        <v>0.002492083208512627</v>
+        <v>0.004491851497869633</v>
       </c>
       <c r="F26">
-        <v>0.04228904539327855</v>
+        <v>-0.03826832061343045</v>
       </c>
       <c r="G26">
-        <v>-0.0004463394464638688</v>
+        <v>-0.007540592111958622</v>
       </c>
       <c r="H26">
-        <v>0.0323570221067182</v>
+        <v>-0.044541502952252</v>
       </c>
       <c r="I26">
-        <v>-0.02118173666558243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>-0.04332144779708691</v>
+      </c>
+      <c r="J26">
+        <v>-0.01272404605870939</v>
+      </c>
+      <c r="K26">
+        <v>0.1463968139167431</v>
+      </c>
+      <c r="L26">
+        <v>-0.002692778540589952</v>
+      </c>
+      <c r="M26">
+        <v>-0.0003037503746386276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1208535394338793</v>
+        <v>0.1425670275355604</v>
       </c>
       <c r="C28">
-        <v>0.2943128700644029</v>
+        <v>0.286365531356758</v>
       </c>
       <c r="D28">
-        <v>-0.02913795920083738</v>
+        <v>0.006010383401884722</v>
       </c>
       <c r="E28">
-        <v>0.002394631138062</v>
+        <v>0.02717814831713744</v>
       </c>
       <c r="F28">
-        <v>0.02646994181331847</v>
+        <v>0.003498290638050834</v>
       </c>
       <c r="G28">
-        <v>-0.06652340415124031</v>
+        <v>0.02898866593197681</v>
       </c>
       <c r="H28">
-        <v>-0.005339477092683246</v>
+        <v>-0.00540568768609484</v>
       </c>
       <c r="I28">
-        <v>-0.07164888110995091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-0.01408563067031854</v>
+      </c>
+      <c r="J28">
+        <v>0.0009936478943316782</v>
+      </c>
+      <c r="K28">
+        <v>0.05233882606962414</v>
+      </c>
+      <c r="L28">
+        <v>-0.01451821884506364</v>
+      </c>
+      <c r="M28">
+        <v>0.02875940180565409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.045975516093461</v>
+        <v>0.04458507289182031</v>
       </c>
       <c r="C29">
-        <v>-0.01437955917630022</v>
+        <v>-0.02366897211027973</v>
       </c>
       <c r="D29">
-        <v>-0.01061299180058833</v>
+        <v>0.0004114818980791994</v>
       </c>
       <c r="E29">
-        <v>-0.0285922574997829</v>
+        <v>0.01803594211435381</v>
       </c>
       <c r="F29">
-        <v>0.0344064255323303</v>
+        <v>-0.04840351507677574</v>
       </c>
       <c r="G29">
-        <v>0.01220778974687961</v>
+        <v>-0.05350667419271174</v>
       </c>
       <c r="H29">
-        <v>-0.01922202698219988</v>
+        <v>-0.04543618364517592</v>
       </c>
       <c r="I29">
-        <v>-0.003855150017886705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.0007229392721130422</v>
+      </c>
+      <c r="J29">
+        <v>-0.02810315118854458</v>
+      </c>
+      <c r="K29">
+        <v>0.04290483211185021</v>
+      </c>
+      <c r="L29">
+        <v>-0.01768458093635474</v>
+      </c>
+      <c r="M29">
+        <v>0.009415540526775587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1182430157041176</v>
+        <v>0.09944088807610303</v>
       </c>
       <c r="C30">
-        <v>-0.07167457353544657</v>
+        <v>-0.06713744753820537</v>
       </c>
       <c r="D30">
-        <v>-0.07749261841449655</v>
+        <v>0.001776742969299227</v>
       </c>
       <c r="E30">
-        <v>-0.04969066738003874</v>
+        <v>0.04458199135460728</v>
       </c>
       <c r="F30">
-        <v>0.03993084231227554</v>
+        <v>-0.1577608962743057</v>
       </c>
       <c r="G30">
-        <v>-0.02725847674452963</v>
+        <v>1.637238489957435e-05</v>
       </c>
       <c r="H30">
-        <v>-0.0005164932534721309</v>
+        <v>-0.1368885270388848</v>
       </c>
       <c r="I30">
-        <v>-0.07012282433896014</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.1896808404157711</v>
+      </c>
+      <c r="J30">
+        <v>0.01345632532184288</v>
+      </c>
+      <c r="K30">
+        <v>0.2631681568321499</v>
+      </c>
+      <c r="L30">
+        <v>-0.2460012124282982</v>
+      </c>
+      <c r="M30">
+        <v>0.1012798902545219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04773984906889345</v>
+        <v>0.03510411717665209</v>
       </c>
       <c r="C31">
-        <v>-0.02530205004021078</v>
+        <v>-0.04474721538699</v>
       </c>
       <c r="D31">
-        <v>-0.006089052066178533</v>
+        <v>-0.005765738606285183</v>
       </c>
       <c r="E31">
-        <v>0.007470051698633151</v>
+        <v>-0.0049901801579189</v>
       </c>
       <c r="F31">
-        <v>0.03505375278014989</v>
+        <v>-0.01452698299112619</v>
       </c>
       <c r="G31">
-        <v>0.02080328568388537</v>
+        <v>-0.04764446072402495</v>
       </c>
       <c r="H31">
-        <v>0.03428532921094794</v>
+        <v>-0.03244854022078445</v>
       </c>
       <c r="I31">
-        <v>0.01373286534752148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>-0.03104550556499097</v>
+      </c>
+      <c r="J31">
+        <v>-0.01018143800770843</v>
+      </c>
+      <c r="K31">
+        <v>-0.009508958727452695</v>
+      </c>
+      <c r="L31">
+        <v>-0.03485816742183915</v>
+      </c>
+      <c r="M31">
+        <v>-0.01437187292414368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02390451931982104</v>
+        <v>0.04756748629647749</v>
       </c>
       <c r="C32">
-        <v>0.001252118262517791</v>
+        <v>0.003491273806070251</v>
       </c>
       <c r="D32">
-        <v>0.04101094404746713</v>
+        <v>-0.004252452046093855</v>
       </c>
       <c r="E32">
-        <v>-0.07719070145008228</v>
+        <v>-0.005892800754912574</v>
       </c>
       <c r="F32">
-        <v>-6.335412466875437e-05</v>
+        <v>-0.09032332535797138</v>
       </c>
       <c r="G32">
-        <v>0.04538222659034084</v>
+        <v>-0.003039089122295003</v>
       </c>
       <c r="H32">
-        <v>0.05639126795854207</v>
+        <v>-0.003144743897175887</v>
       </c>
       <c r="I32">
-        <v>-0.08015663717630574</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-0.08034434502445138</v>
+      </c>
+      <c r="J32">
+        <v>0.03147986679392492</v>
+      </c>
+      <c r="K32">
+        <v>0.04697181207741553</v>
+      </c>
+      <c r="L32">
+        <v>-0.0743530509192542</v>
+      </c>
+      <c r="M32">
+        <v>0.09766991250132438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.09722121768327054</v>
+        <v>0.0967523396817363</v>
       </c>
       <c r="C33">
-        <v>-0.06049169825554967</v>
+        <v>-0.06529664074298881</v>
       </c>
       <c r="D33">
-        <v>-0.01113537527264231</v>
+        <v>0.009321236687255733</v>
       </c>
       <c r="E33">
-        <v>0.0002125955372676397</v>
+        <v>-0.01684367966374246</v>
       </c>
       <c r="F33">
-        <v>0.03116431111886706</v>
+        <v>-0.0634241605473711</v>
       </c>
       <c r="G33">
-        <v>0.0351574699206364</v>
+        <v>-0.05459473692986287</v>
       </c>
       <c r="H33">
-        <v>0.02775507772686222</v>
+        <v>-0.04723816882954417</v>
       </c>
       <c r="I33">
-        <v>-0.02397549839211663</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.02299758707920345</v>
+      </c>
+      <c r="J33">
+        <v>-0.01607569560411612</v>
+      </c>
+      <c r="K33">
+        <v>0.04569810992022139</v>
+      </c>
+      <c r="L33">
+        <v>0.004339432573967723</v>
+      </c>
+      <c r="M33">
+        <v>-0.03973019373597396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.04931618899202149</v>
+        <v>0.0635113933403294</v>
       </c>
       <c r="C34">
-        <v>-0.0782683250445764</v>
+        <v>-0.06346697386011199</v>
       </c>
       <c r="D34">
-        <v>-0.02739150753269574</v>
+        <v>0.02808064706968282</v>
       </c>
       <c r="E34">
-        <v>-0.03642925125287226</v>
+        <v>0.01562856287732598</v>
       </c>
       <c r="F34">
-        <v>0.01087789027941665</v>
+        <v>-0.0947837281282233</v>
       </c>
       <c r="G34">
-        <v>0.01767995519420221</v>
+        <v>-0.02595066325212139</v>
       </c>
       <c r="H34">
-        <v>-0.005184707267369155</v>
+        <v>-0.06531258138780273</v>
       </c>
       <c r="I34">
-        <v>-0.04703299289840209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.01389963816719416</v>
+      </c>
+      <c r="J34">
+        <v>0.0442510896899676</v>
+      </c>
+      <c r="K34">
+        <v>-0.0517563452102314</v>
+      </c>
+      <c r="L34">
+        <v>-0.004970660475423749</v>
+      </c>
+      <c r="M34">
+        <v>-0.05571465214886172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03779073134181253</v>
+        <v>0.02943024324405294</v>
       </c>
       <c r="C35">
-        <v>-0.02537979098659183</v>
+        <v>-0.02597037077594573</v>
       </c>
       <c r="D35">
-        <v>-0.01286431165798542</v>
+        <v>-3.358632701218739e-05</v>
       </c>
       <c r="E35">
-        <v>-0.02569592955254089</v>
+        <v>-0.001933486984861037</v>
       </c>
       <c r="F35">
-        <v>0.02936832822091312</v>
+        <v>-0.0189799070196086</v>
       </c>
       <c r="G35">
-        <v>0.02367177058700241</v>
+        <v>-0.0309072733777828</v>
       </c>
       <c r="H35">
-        <v>0.03632912915177772</v>
+        <v>-0.05454126298341859</v>
       </c>
       <c r="I35">
-        <v>-0.02510151095001315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.02453334455239698</v>
+      </c>
+      <c r="J35">
+        <v>0.03591408019265815</v>
+      </c>
+      <c r="K35">
+        <v>0.03538864842349912</v>
+      </c>
+      <c r="L35">
+        <v>-0.04454740377175636</v>
+      </c>
+      <c r="M35">
+        <v>5.410366365328942e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02513864963839483</v>
+        <v>0.02942421459592996</v>
       </c>
       <c r="C36">
-        <v>-0.01280751077706938</v>
+        <v>-0.01814645213667582</v>
       </c>
       <c r="D36">
-        <v>-0.02918917012745106</v>
+        <v>-0.01225789547411311</v>
       </c>
       <c r="E36">
-        <v>-0.02040536826620699</v>
+        <v>0.01827487773919437</v>
       </c>
       <c r="F36">
-        <v>0.02494577861212775</v>
+        <v>-0.05293412848592671</v>
       </c>
       <c r="G36">
-        <v>0.02323021004765351</v>
+        <v>-0.02164131252764074</v>
       </c>
       <c r="H36">
-        <v>0.01269593590549204</v>
+        <v>-0.05329967683616112</v>
       </c>
       <c r="I36">
-        <v>0.0181160478398484</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.0007431478587009434</v>
+      </c>
+      <c r="J36">
+        <v>-0.01309945228709258</v>
+      </c>
+      <c r="K36">
+        <v>0.04547514524521386</v>
+      </c>
+      <c r="L36">
+        <v>-0.008225885366601007</v>
+      </c>
+      <c r="M36">
+        <v>-0.04025968801518352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.03990406878508065</v>
+        <v>0.03227935412343531</v>
       </c>
       <c r="C38">
-        <v>-0.02975125363913508</v>
+        <v>-0.04802994768489662</v>
       </c>
       <c r="D38">
-        <v>0.02761795998938398</v>
+        <v>-0.0253937415169997</v>
       </c>
       <c r="E38">
-        <v>-0.04748846012863502</v>
+        <v>0.0002398961562031423</v>
       </c>
       <c r="F38">
-        <v>0.002018409764559624</v>
+        <v>0.04354814206250457</v>
       </c>
       <c r="G38">
-        <v>0.00852638409909574</v>
+        <v>-0.03511357632052579</v>
       </c>
       <c r="H38">
-        <v>0.05024386552776429</v>
+        <v>0.07643893252910661</v>
       </c>
       <c r="I38">
-        <v>-0.03553801015912764</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.02662709071001954</v>
+      </c>
+      <c r="J38">
+        <v>0.02405342534654804</v>
+      </c>
+      <c r="K38">
+        <v>0.1742483287977135</v>
+      </c>
+      <c r="L38">
+        <v>0.0819712529609164</v>
+      </c>
+      <c r="M38">
+        <v>0.03468090114804386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.0907551712678923</v>
+        <v>0.09427904627596009</v>
       </c>
       <c r="C39">
-        <v>-0.1059432649258052</v>
+        <v>-0.08597963675420346</v>
       </c>
       <c r="D39">
-        <v>-0.02029453041912683</v>
+        <v>0.07564194708820136</v>
       </c>
       <c r="E39">
-        <v>-0.03470896629645485</v>
+        <v>0.005939526533119877</v>
       </c>
       <c r="F39">
-        <v>-0.02430816356428908</v>
+        <v>-0.1444620498125003</v>
       </c>
       <c r="G39">
-        <v>0.016125771611354</v>
+        <v>-0.04238225886058394</v>
       </c>
       <c r="H39">
-        <v>-0.004375424543709707</v>
+        <v>-0.09049183385936593</v>
       </c>
       <c r="I39">
-        <v>-0.1516367977908415</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.08244362460927422</v>
+      </c>
+      <c r="J39">
+        <v>0.1700145493512153</v>
+      </c>
+      <c r="K39">
+        <v>0.003643580581421885</v>
+      </c>
+      <c r="L39">
+        <v>-0.08210576695321903</v>
+      </c>
+      <c r="M39">
+        <v>0.02085582142023856</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.0599374752082723</v>
+        <v>0.03924612119400409</v>
       </c>
       <c r="C40">
-        <v>-0.03297046915178539</v>
+        <v>-0.0555550207619791</v>
       </c>
       <c r="D40">
-        <v>0.02527783333893977</v>
+        <v>-0.04836001881730063</v>
       </c>
       <c r="E40">
-        <v>-0.1546688840417062</v>
+        <v>-0.007614443266816172</v>
       </c>
       <c r="F40">
-        <v>0.05777400583111338</v>
+        <v>-0.1298416547676653</v>
       </c>
       <c r="G40">
-        <v>0.06658109386124475</v>
+        <v>0.03398626870351484</v>
       </c>
       <c r="H40">
-        <v>0.01632233195505502</v>
+        <v>-0.00622846578079009</v>
       </c>
       <c r="I40">
-        <v>-0.1560587079949434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.01972493028719492</v>
+      </c>
+      <c r="J40">
+        <v>0.08055497949877784</v>
+      </c>
+      <c r="K40">
+        <v>0.1234443628411113</v>
+      </c>
+      <c r="L40">
+        <v>-0.04846281196916924</v>
+      </c>
+      <c r="M40">
+        <v>0.02154520593622579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04212865757547578</v>
+        <v>0.03491741708423592</v>
       </c>
       <c r="C41">
-        <v>-0.05271905004771794</v>
+        <v>-0.03668929918553199</v>
       </c>
       <c r="D41">
-        <v>-0.01030303543412681</v>
+        <v>0.01831745498948841</v>
       </c>
       <c r="E41">
-        <v>-0.00337786138729734</v>
+        <v>-0.001408191944819078</v>
       </c>
       <c r="F41">
-        <v>0.01824064352798064</v>
+        <v>-0.01638331378093457</v>
       </c>
       <c r="G41">
-        <v>0.02195026714544463</v>
+        <v>-0.02424268878532707</v>
       </c>
       <c r="H41">
-        <v>0.01906739543379055</v>
+        <v>0.00540527636058873</v>
       </c>
       <c r="I41">
-        <v>-0.05324205922052365</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>-0.01610097580739377</v>
+      </c>
+      <c r="J41">
+        <v>0.01487894481847469</v>
+      </c>
+      <c r="K41">
+        <v>0.03085626735194893</v>
+      </c>
+      <c r="L41">
+        <v>-0.01964693307554302</v>
+      </c>
+      <c r="M41">
+        <v>-0.01681437621841647</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05215732959825442</v>
+        <v>0.05095338588435777</v>
       </c>
       <c r="C43">
-        <v>-0.04049157785406</v>
+        <v>-0.04936496344593217</v>
       </c>
       <c r="D43">
-        <v>-0.02880891889424584</v>
+        <v>-0.01202233375330883</v>
       </c>
       <c r="E43">
-        <v>-0.02326809316937891</v>
+        <v>0.01963090864026935</v>
       </c>
       <c r="F43">
-        <v>0.008604532045453079</v>
+        <v>-0.01374580955506769</v>
       </c>
       <c r="G43">
-        <v>0.001421579622695708</v>
+        <v>-0.04662135925331665</v>
       </c>
       <c r="H43">
-        <v>0.06014991866088844</v>
+        <v>0.005255752980392436</v>
       </c>
       <c r="I43">
-        <v>-0.0007996197391782947</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-0.003463922393167973</v>
+      </c>
+      <c r="J43">
+        <v>0.01533454467369304</v>
+      </c>
+      <c r="K43">
+        <v>0.01145453021873085</v>
+      </c>
+      <c r="L43">
+        <v>-0.008590358076424281</v>
+      </c>
+      <c r="M43">
+        <v>-0.03189811063636064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.04925165236462466</v>
+        <v>0.08274149855021573</v>
       </c>
       <c r="C44">
-        <v>-0.02314901102400984</v>
+        <v>-0.06139582304694045</v>
       </c>
       <c r="D44">
-        <v>-0.06975173583235963</v>
+        <v>-0.06617765761896494</v>
       </c>
       <c r="E44">
-        <v>-0.1317122827865723</v>
+        <v>0.09752251226090546</v>
       </c>
       <c r="F44">
-        <v>0.000781614329174269</v>
+        <v>-0.1684340062143821</v>
       </c>
       <c r="G44">
-        <v>0.02291153779452505</v>
+        <v>-0.02939056057143347</v>
       </c>
       <c r="H44">
-        <v>-0.01629871998900685</v>
+        <v>-0.08333923300610292</v>
       </c>
       <c r="I44">
-        <v>-0.08810925378335396</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.01334132503600503</v>
+      </c>
+      <c r="J44">
+        <v>0.04550934628497225</v>
+      </c>
+      <c r="K44">
+        <v>0.05058961600807728</v>
+      </c>
+      <c r="L44">
+        <v>-0.04210928691170005</v>
+      </c>
+      <c r="M44">
+        <v>0.02292658490281516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01913253694868202</v>
+        <v>0.03681128024502731</v>
       </c>
       <c r="C46">
-        <v>-0.03637997098082592</v>
+        <v>-0.03985304019414847</v>
       </c>
       <c r="D46">
-        <v>-0.01541770405986476</v>
+        <v>-0.04292190307152573</v>
       </c>
       <c r="E46">
-        <v>-0.05077871571608509</v>
+        <v>0.02799602770480612</v>
       </c>
       <c r="F46">
-        <v>0.01714895053739457</v>
+        <v>-0.02402793301052853</v>
       </c>
       <c r="G46">
-        <v>0.01140015798307603</v>
+        <v>-0.02295784507142435</v>
       </c>
       <c r="H46">
-        <v>-0.007213377485904848</v>
+        <v>-0.04577699418335456</v>
       </c>
       <c r="I46">
-        <v>-0.02911529408497904</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>-0.02433168208611806</v>
+      </c>
+      <c r="J46">
+        <v>-0.03651440607868138</v>
+      </c>
+      <c r="K46">
+        <v>0.06501319362313274</v>
+      </c>
+      <c r="L46">
+        <v>0.01390386631025661</v>
+      </c>
+      <c r="M46">
+        <v>-0.01436668820699294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.03059839265114397</v>
+        <v>0.04567173850768751</v>
       </c>
       <c r="C47">
-        <v>-0.001380250909389803</v>
+        <v>-0.03044905247240212</v>
       </c>
       <c r="D47">
-        <v>0.004674513919945414</v>
+        <v>-0.01959457768034338</v>
       </c>
       <c r="E47">
-        <v>-0.06535952288740376</v>
+        <v>0.005096292472689429</v>
       </c>
       <c r="F47">
-        <v>0.02631467513666521</v>
+        <v>-0.0299687409453867</v>
       </c>
       <c r="G47">
-        <v>0.03262563415970644</v>
+        <v>-0.03589634885339758</v>
       </c>
       <c r="H47">
-        <v>0.004060780606950099</v>
+        <v>-0.02150672371541353</v>
       </c>
       <c r="I47">
-        <v>0.04656104084267386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.02646736079923057</v>
+      </c>
+      <c r="J47">
+        <v>-0.02137455613655866</v>
+      </c>
+      <c r="K47">
+        <v>0.02048632363253095</v>
+      </c>
+      <c r="L47">
+        <v>-0.009082971548684572</v>
+      </c>
+      <c r="M47">
+        <v>-0.05551814604201269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03438296825854635</v>
+        <v>0.04247866527405408</v>
       </c>
       <c r="C48">
-        <v>-0.02185582768864016</v>
+        <v>-0.01865805951239598</v>
       </c>
       <c r="D48">
-        <v>-0.01003312724401965</v>
+        <v>-0.01305756258162944</v>
       </c>
       <c r="E48">
-        <v>-0.04053232375558987</v>
+        <v>0.000330368475791386</v>
       </c>
       <c r="F48">
-        <v>0.03804386060197809</v>
+        <v>-0.05811789566469624</v>
       </c>
       <c r="G48">
-        <v>0.02223268628917798</v>
+        <v>0.001067297751074055</v>
       </c>
       <c r="H48">
-        <v>0.04668088163609882</v>
+        <v>-0.0660910398225283</v>
       </c>
       <c r="I48">
-        <v>-0.005350200286882151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-0.0137545183405745</v>
+      </c>
+      <c r="J48">
+        <v>0.01534442851609625</v>
+      </c>
+      <c r="K48">
+        <v>0.01959547170003802</v>
+      </c>
+      <c r="L48">
+        <v>-0.04959057753469535</v>
+      </c>
+      <c r="M48">
+        <v>-0.0325716044629122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1858639210331493</v>
+        <v>0.2223847731589904</v>
       </c>
       <c r="C49">
-        <v>-0.1257741605117274</v>
+        <v>-0.08540730538642401</v>
       </c>
       <c r="D49">
-        <v>-0.08138482647791088</v>
+        <v>0.06581942516988162</v>
       </c>
       <c r="E49">
-        <v>0.05896467848849516</v>
+        <v>0.02352710019871979</v>
       </c>
       <c r="F49">
-        <v>-0.001537935545490651</v>
+        <v>0.2238654863904064</v>
       </c>
       <c r="G49">
-        <v>-0.1929871014216806</v>
+        <v>0.1906067818725082</v>
       </c>
       <c r="H49">
-        <v>-0.06124624851367949</v>
+        <v>-0.0284417406326535</v>
       </c>
       <c r="I49">
-        <v>0.00131370037480715</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.09984996766771265</v>
+      </c>
+      <c r="J49">
+        <v>0.1589988874836024</v>
+      </c>
+      <c r="K49">
+        <v>-0.06312445973219952</v>
+      </c>
+      <c r="L49">
+        <v>0.2060662804708792</v>
+      </c>
+      <c r="M49">
+        <v>-0.03010966175086178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05394286010605343</v>
+        <v>0.04436475058677473</v>
       </c>
       <c r="C50">
-        <v>-0.03319972359901378</v>
+        <v>-0.04311446136024656</v>
       </c>
       <c r="D50">
-        <v>-0.01178557659522058</v>
+        <v>-0.0009300625448312532</v>
       </c>
       <c r="E50">
-        <v>-0.01648829635789625</v>
+        <v>-0.008840160116755758</v>
       </c>
       <c r="F50">
-        <v>0.05378901752031982</v>
+        <v>-0.03868858464073506</v>
       </c>
       <c r="G50">
-        <v>0.04817603494448946</v>
+        <v>-0.05371502531529605</v>
       </c>
       <c r="H50">
-        <v>0.005493775753921829</v>
+        <v>-0.03398375707405979</v>
       </c>
       <c r="I50">
-        <v>0.02428046241500326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.001724011670445689</v>
+      </c>
+      <c r="J50">
+        <v>-0.04394555126654257</v>
+      </c>
+      <c r="K50">
+        <v>0.02844148148772895</v>
+      </c>
+      <c r="L50">
+        <v>-0.02031540988379562</v>
+      </c>
+      <c r="M50">
+        <v>0.03807505992647239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02394268854132478</v>
+        <v>0.03042420002095526</v>
       </c>
       <c r="C51">
-        <v>-0.01225247828404222</v>
+        <v>-0.005529319383316727</v>
       </c>
       <c r="D51">
-        <v>0.005345722172224663</v>
+        <v>0.001657851615929297</v>
       </c>
       <c r="E51">
-        <v>-0.0165098797562145</v>
+        <v>0.01915286605144866</v>
       </c>
       <c r="F51">
-        <v>-0.017065410724385</v>
+        <v>0.01675866524312883</v>
       </c>
       <c r="G51">
-        <v>-0.01647603011535828</v>
+        <v>0.01036204332090463</v>
       </c>
       <c r="H51">
-        <v>-0.02132941906036846</v>
+        <v>0.01532493977477645</v>
       </c>
       <c r="I51">
-        <v>-0.03032859416129792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.02872435435433918</v>
+      </c>
+      <c r="J51">
+        <v>0.05281267923880677</v>
+      </c>
+      <c r="K51">
+        <v>-0.07817526698717767</v>
+      </c>
+      <c r="L51">
+        <v>0.007250108100653307</v>
+      </c>
+      <c r="M51">
+        <v>-0.0126286522529738</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.006525522193844268</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.003222099672890725</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01446056703755034</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.001668523380219994</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.007830747515450804</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.009756273471586587</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.01075246808631834</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-0.02519661567914628</v>
+      </c>
+      <c r="J52">
+        <v>0.001775317812067528</v>
+      </c>
+      <c r="K52">
+        <v>-0.0162396966325301</v>
+      </c>
+      <c r="L52">
+        <v>-0.007485542255670192</v>
+      </c>
+      <c r="M52">
+        <v>0.01080514115024989</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1659373006171409</v>
+        <v>0.1533146396597841</v>
       </c>
       <c r="C53">
-        <v>-0.0216039605509117</v>
+        <v>-0.04941813047081077</v>
       </c>
       <c r="D53">
-        <v>-0.03988916087319106</v>
+        <v>0.01820230228089847</v>
       </c>
       <c r="E53">
-        <v>0.08426443712006514</v>
+        <v>-0.006168708749652799</v>
       </c>
       <c r="F53">
-        <v>-0.02675209718236099</v>
+        <v>0.07067669149889143</v>
       </c>
       <c r="G53">
-        <v>0.2622742035175614</v>
+        <v>-0.2299315242895323</v>
       </c>
       <c r="H53">
-        <v>0.01545832207702677</v>
+        <v>0.0702577358742435</v>
       </c>
       <c r="I53">
-        <v>0.03086279853050744</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>-0.03072518097997945</v>
+      </c>
+      <c r="J53">
+        <v>-0.09426548456031256</v>
+      </c>
+      <c r="K53">
+        <v>-0.03470746671060918</v>
+      </c>
+      <c r="L53">
+        <v>0.03134688662629106</v>
+      </c>
+      <c r="M53">
+        <v>0.1077190236840708</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.04996871103961079</v>
+        <v>0.05747513736578264</v>
       </c>
       <c r="C54">
-        <v>-0.03404238318759786</v>
+        <v>-0.03258186361821934</v>
       </c>
       <c r="D54">
-        <v>-0.03860144190477922</v>
+        <v>-0.01770418120969898</v>
       </c>
       <c r="E54">
-        <v>-0.02535740159401379</v>
+        <v>0.01981586972128915</v>
       </c>
       <c r="F54">
-        <v>0.02038503949270165</v>
+        <v>-0.1003783091803798</v>
       </c>
       <c r="G54">
-        <v>0.005370113632161885</v>
+        <v>-0.008544049741175928</v>
       </c>
       <c r="H54">
-        <v>0.02710493268424656</v>
+        <v>-0.06599507868520772</v>
       </c>
       <c r="I54">
-        <v>-0.01005761194375777</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>-0.07066669276887023</v>
+      </c>
+      <c r="J54">
+        <v>-0.0683981060358277</v>
+      </c>
+      <c r="K54">
+        <v>0.05357002939026138</v>
+      </c>
+      <c r="L54">
+        <v>-0.03986429730829489</v>
+      </c>
+      <c r="M54">
+        <v>-0.03264229948739013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09281487034475362</v>
+        <v>0.08645034027418734</v>
       </c>
       <c r="C55">
-        <v>-0.008279437584530105</v>
+        <v>-0.03834531600244431</v>
       </c>
       <c r="D55">
-        <v>-0.03505230776348701</v>
+        <v>0.0258742771336329</v>
       </c>
       <c r="E55">
-        <v>0.02120077057311883</v>
+        <v>0.009672805348926842</v>
       </c>
       <c r="F55">
-        <v>0.006918794945765361</v>
+        <v>-0.001259781480564221</v>
       </c>
       <c r="G55">
-        <v>0.2334219670033146</v>
+        <v>-0.1718162494658303</v>
       </c>
       <c r="H55">
-        <v>-0.00244460847725771</v>
+        <v>0.02628801356293043</v>
       </c>
       <c r="I55">
-        <v>0.02954117868840522</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>-0.01538160096224643</v>
+      </c>
+      <c r="J55">
+        <v>-0.05570480846057996</v>
+      </c>
+      <c r="K55">
+        <v>-0.03496729788556481</v>
+      </c>
+      <c r="L55">
+        <v>0.02480522393561187</v>
+      </c>
+      <c r="M55">
+        <v>0.06662120950618089</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1703024320613786</v>
+        <v>0.1468759528061935</v>
       </c>
       <c r="C56">
-        <v>-0.02075192584976005</v>
+        <v>-0.06892931418361299</v>
       </c>
       <c r="D56">
-        <v>-0.06524224427626102</v>
+        <v>0.03056791919240694</v>
       </c>
       <c r="E56">
-        <v>0.08588700886436988</v>
+        <v>0.009821685689433847</v>
       </c>
       <c r="F56">
-        <v>-0.03625038222352905</v>
+        <v>0.04131401357171086</v>
       </c>
       <c r="G56">
-        <v>0.2273561288463931</v>
+        <v>-0.23656948697271</v>
       </c>
       <c r="H56">
-        <v>0.04520426197171636</v>
+        <v>0.1081399311177768</v>
       </c>
       <c r="I56">
-        <v>0.05171562251492901</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>-0.03709075505692538</v>
+      </c>
+      <c r="J56">
+        <v>-0.06596836769296581</v>
+      </c>
+      <c r="K56">
+        <v>-0.02261430815930457</v>
+      </c>
+      <c r="L56">
+        <v>0.01403356504792664</v>
+      </c>
+      <c r="M56">
+        <v>0.07373284803257639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.05004581774340607</v>
+        <v>0.04019428817019113</v>
       </c>
       <c r="C58">
-        <v>-0.04059434031434318</v>
+        <v>-0.03284558000460805</v>
       </c>
       <c r="D58">
-        <v>-0.04096923785088261</v>
+        <v>-0.08156375819924062</v>
       </c>
       <c r="E58">
-        <v>-0.2999070150616192</v>
+        <v>0.02758249859194881</v>
       </c>
       <c r="F58">
-        <v>0.1615336943785183</v>
+        <v>-0.03313141609912362</v>
       </c>
       <c r="G58">
-        <v>-0.1289087130815531</v>
+        <v>0.06683616195270969</v>
       </c>
       <c r="H58">
-        <v>-0.01498755047027266</v>
+        <v>-0.2141117569732839</v>
       </c>
       <c r="I58">
-        <v>0.155431241109383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.165389753994619</v>
+      </c>
+      <c r="J58">
+        <v>0.05025735995235422</v>
+      </c>
+      <c r="K58">
+        <v>-0.2879624228504367</v>
+      </c>
+      <c r="L58">
+        <v>-0.4746870690239559</v>
+      </c>
+      <c r="M58">
+        <v>-0.2336907442964373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2534264374669399</v>
+        <v>0.2295278594955746</v>
       </c>
       <c r="C59">
-        <v>0.4040370384696761</v>
+        <v>0.3027673061719912</v>
       </c>
       <c r="D59">
-        <v>-0.03207269775440968</v>
+        <v>0.03625440807261459</v>
       </c>
       <c r="E59">
-        <v>-0.02842806714029055</v>
+        <v>0.008740114496094204</v>
       </c>
       <c r="F59">
-        <v>-0.07894962677698453</v>
+        <v>-0.02606856699368352</v>
       </c>
       <c r="G59">
-        <v>0.03797707229147421</v>
+        <v>-0.06309057184036275</v>
       </c>
       <c r="H59">
-        <v>0.01902277361274085</v>
+        <v>0.08240415675937013</v>
       </c>
       <c r="I59">
-        <v>-0.06057458211668285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>-0.07647823391069687</v>
+      </c>
+      <c r="J59">
+        <v>0.04243087576435648</v>
+      </c>
+      <c r="K59">
+        <v>-0.07121888275310519</v>
+      </c>
+      <c r="L59">
+        <v>0.007697258730889607</v>
+      </c>
+      <c r="M59">
+        <v>-0.007185127004772072</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2448964343353034</v>
+        <v>0.2421584915930597</v>
       </c>
       <c r="C60">
-        <v>-0.08052635755934603</v>
+        <v>-0.1161544485247513</v>
       </c>
       <c r="D60">
-        <v>-0.0958061997804306</v>
+        <v>0.06706673123356144</v>
       </c>
       <c r="E60">
-        <v>-0.01381048688883375</v>
+        <v>0.03660920582272535</v>
       </c>
       <c r="F60">
-        <v>-0.03554458271296576</v>
+        <v>0.1107857266456584</v>
       </c>
       <c r="G60">
-        <v>-0.07053961091658163</v>
+        <v>0.06508751960844557</v>
       </c>
       <c r="H60">
-        <v>-0.08390369113212955</v>
+        <v>0.09953389383932054</v>
       </c>
       <c r="I60">
-        <v>0.07110422731500063</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.09528672611994227</v>
+      </c>
+      <c r="J60">
+        <v>-0.09103137745428028</v>
+      </c>
+      <c r="K60">
+        <v>-0.1150524232696088</v>
+      </c>
+      <c r="L60">
+        <v>0.06673287874273584</v>
+      </c>
+      <c r="M60">
+        <v>0.03115457793719364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.07624561852049025</v>
+        <v>0.08888219837431409</v>
       </c>
       <c r="C61">
-        <v>-0.05868714523519065</v>
+        <v>-0.06180922122883414</v>
       </c>
       <c r="D61">
-        <v>-0.0203540536678527</v>
+        <v>0.04292629554434072</v>
       </c>
       <c r="E61">
-        <v>-0.005324101241626608</v>
+        <v>0.02201064248563627</v>
       </c>
       <c r="F61">
-        <v>0.02014810412115481</v>
+        <v>-0.1061194308603233</v>
       </c>
       <c r="G61">
-        <v>0.01696733898444661</v>
+        <v>-0.06386096933188362</v>
       </c>
       <c r="H61">
-        <v>0.0047657986006224</v>
+        <v>-0.05487748001073083</v>
       </c>
       <c r="I61">
-        <v>-0.08107495656567924</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.02406461394878335</v>
+      </c>
+      <c r="J61">
+        <v>0.0820499437413095</v>
+      </c>
+      <c r="K61">
+        <v>0.01924202190870311</v>
+      </c>
+      <c r="L61">
+        <v>-0.03492329890814357</v>
+      </c>
+      <c r="M61">
+        <v>0.01332980858738076</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.164175326755386</v>
+        <v>0.145036677587365</v>
       </c>
       <c r="C62">
-        <v>-0.05914322715506956</v>
+        <v>-0.07853602690120502</v>
       </c>
       <c r="D62">
-        <v>-0.0246234465784246</v>
+        <v>0.03272162930616574</v>
       </c>
       <c r="E62">
-        <v>0.1299769207168899</v>
+        <v>-0.02994854330917509</v>
       </c>
       <c r="F62">
-        <v>-0.05064603962524497</v>
+        <v>0.02684655651621313</v>
       </c>
       <c r="G62">
-        <v>0.2426110895657292</v>
+        <v>-0.2067710192462458</v>
       </c>
       <c r="H62">
-        <v>0.01775312457369538</v>
+        <v>0.06805391260896176</v>
       </c>
       <c r="I62">
-        <v>-0.01756001742863837</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-0.02754471306486119</v>
+      </c>
+      <c r="J62">
+        <v>-0.1166919403759162</v>
+      </c>
+      <c r="K62">
+        <v>0.02668973650531854</v>
+      </c>
+      <c r="L62">
+        <v>0.09381632324547147</v>
+      </c>
+      <c r="M62">
+        <v>0.0695885966565636</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04404122151822493</v>
+        <v>0.04433688603889383</v>
       </c>
       <c r="C63">
-        <v>-0.03798348805865701</v>
+        <v>-0.0275817074659272</v>
       </c>
       <c r="D63">
-        <v>-0.02592382434449947</v>
+        <v>0.006083918738144645</v>
       </c>
       <c r="E63">
-        <v>-0.004935951617992718</v>
+        <v>-0.006100658926369071</v>
       </c>
       <c r="F63">
-        <v>0.02747972617781496</v>
+        <v>-0.05892528027842949</v>
       </c>
       <c r="G63">
-        <v>0.0347597261509291</v>
+        <v>-0.01363278057333584</v>
       </c>
       <c r="H63">
-        <v>-0.02949253380697273</v>
+        <v>-0.05823308674463271</v>
       </c>
       <c r="I63">
-        <v>0.01320092534571191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.01501644213718466</v>
+      </c>
+      <c r="J63">
+        <v>-0.03428204205493237</v>
+      </c>
+      <c r="K63">
+        <v>0.01974778590704023</v>
+      </c>
+      <c r="L63">
+        <v>-0.0101748195808624</v>
+      </c>
+      <c r="M63">
+        <v>-0.0003235469771917342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1002051982990598</v>
+        <v>0.1010005678339248</v>
       </c>
       <c r="C64">
-        <v>-0.03401897272470189</v>
+        <v>-0.04994978929440323</v>
       </c>
       <c r="D64">
-        <v>-0.04327392422107897</v>
+        <v>-0.0004588756531624132</v>
       </c>
       <c r="E64">
-        <v>-0.03416391542538716</v>
+        <v>0.04006312416514915</v>
       </c>
       <c r="F64">
-        <v>0.03369185125706676</v>
+        <v>-0.05415204031480483</v>
       </c>
       <c r="G64">
-        <v>-0.01838473773239233</v>
+        <v>0.01022447220549793</v>
       </c>
       <c r="H64">
-        <v>-0.02284389302067029</v>
+        <v>-0.04641966130786526</v>
       </c>
       <c r="I64">
-        <v>-0.09099874096649505</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.05196779313381636</v>
+      </c>
+      <c r="J64">
+        <v>0.01175971813171155</v>
+      </c>
+      <c r="K64">
+        <v>0.05042681023754755</v>
+      </c>
+      <c r="L64">
+        <v>-0.01717776645236171</v>
+      </c>
+      <c r="M64">
+        <v>0.0597556366810887</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1268069277330321</v>
+        <v>0.1230510097299114</v>
       </c>
       <c r="C65">
-        <v>-0.06098829083300929</v>
+        <v>-0.04312157068917129</v>
       </c>
       <c r="D65">
-        <v>-0.06847311796790419</v>
+        <v>0.0132568804257578</v>
       </c>
       <c r="E65">
-        <v>-0.1094662188243612</v>
+        <v>0.005125982113769702</v>
       </c>
       <c r="F65">
-        <v>0.1427529648872951</v>
+        <v>-0.036619448632029</v>
       </c>
       <c r="G65">
-        <v>-0.1173342396316918</v>
+        <v>0.2028677927528531</v>
       </c>
       <c r="H65">
-        <v>-0.2769886023449927</v>
+        <v>-0.09109314582064441</v>
       </c>
       <c r="I65">
-        <v>0.6062047180081307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1777225076107538</v>
+      </c>
+      <c r="J65">
+        <v>-0.6358648785509633</v>
+      </c>
+      <c r="K65">
+        <v>-0.01915590304028596</v>
+      </c>
+      <c r="L65">
+        <v>0.07049923199321562</v>
+      </c>
+      <c r="M65">
+        <v>-0.1193786246047908</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1500762927981401</v>
+        <v>0.1248279600418468</v>
       </c>
       <c r="C66">
-        <v>-0.1568958468823497</v>
+        <v>-0.1299229459265255</v>
       </c>
       <c r="D66">
-        <v>-0.04728972984872222</v>
+        <v>0.1003828098603685</v>
       </c>
       <c r="E66">
-        <v>0.004577374251555115</v>
+        <v>-0.006489133186029763</v>
       </c>
       <c r="F66">
-        <v>-0.04934768711886176</v>
+        <v>-0.157105044747337</v>
       </c>
       <c r="G66">
-        <v>0.02472923040129396</v>
+        <v>-0.06340105303115456</v>
       </c>
       <c r="H66">
-        <v>-0.02182772075302498</v>
+        <v>-0.07707793255834232</v>
       </c>
       <c r="I66">
-        <v>-0.3414532541310207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.09196261519756543</v>
+      </c>
+      <c r="J66">
+        <v>0.2297707665246418</v>
+      </c>
+      <c r="K66">
+        <v>0.03740878433965335</v>
+      </c>
+      <c r="L66">
+        <v>-0.05153009367500938</v>
+      </c>
+      <c r="M66">
+        <v>0.06966514577844789</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07152061280383366</v>
+        <v>0.08149943825446973</v>
       </c>
       <c r="C67">
-        <v>-0.04614961021278904</v>
+        <v>-0.06590215863747839</v>
       </c>
       <c r="D67">
-        <v>-0.007607175740428705</v>
+        <v>-0.01791036261070832</v>
       </c>
       <c r="E67">
-        <v>-0.01411961489355404</v>
+        <v>0.03192433484524489</v>
       </c>
       <c r="F67">
-        <v>-0.009227746666382243</v>
+        <v>0.03498763312155974</v>
       </c>
       <c r="G67">
-        <v>-0.008453205859681361</v>
+        <v>-0.05029238151094189</v>
       </c>
       <c r="H67">
-        <v>0.05068324555980114</v>
+        <v>0.1124850129632029</v>
       </c>
       <c r="I67">
-        <v>-0.0446501275083707</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.02330931367650594</v>
+      </c>
+      <c r="J67">
+        <v>0.04006441892313196</v>
+      </c>
+      <c r="K67">
+        <v>0.1237195484355798</v>
+      </c>
+      <c r="L67">
+        <v>0.1039363469008054</v>
+      </c>
+      <c r="M67">
+        <v>0.02144917418975666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1086504086589655</v>
+        <v>0.1229206828001283</v>
       </c>
       <c r="C68">
-        <v>0.2666365354397333</v>
+        <v>0.2725460092996502</v>
       </c>
       <c r="D68">
-        <v>-0.0007469418437940408</v>
+        <v>0.006057939202236058</v>
       </c>
       <c r="E68">
-        <v>-0.009104793049881875</v>
+        <v>0.002520011631634618</v>
       </c>
       <c r="F68">
-        <v>0.02715408436558259</v>
+        <v>-0.01812418037388609</v>
       </c>
       <c r="G68">
-        <v>0.03000005168022815</v>
+        <v>-0.02745680642784212</v>
       </c>
       <c r="H68">
-        <v>0.01295846227287469</v>
+        <v>-0.03258130049350168</v>
       </c>
       <c r="I68">
-        <v>0.02139345542176271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.0253414307950108</v>
+      </c>
+      <c r="J68">
+        <v>-0.05305723323198158</v>
+      </c>
+      <c r="K68">
+        <v>0.02561410033863236</v>
+      </c>
+      <c r="L68">
+        <v>-0.01321130283431463</v>
+      </c>
+      <c r="M68">
+        <v>0.01075515506071483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04490849006851375</v>
+        <v>0.04436423564969492</v>
       </c>
       <c r="C69">
-        <v>-0.03026024783341684</v>
+        <v>-0.02306593209990038</v>
       </c>
       <c r="D69">
-        <v>-0.01250783883493296</v>
+        <v>-0.01191340305659329</v>
       </c>
       <c r="E69">
-        <v>-0.01614110355953161</v>
+        <v>-0.00394336399533679</v>
       </c>
       <c r="F69">
-        <v>-0.03921272170510526</v>
+        <v>-0.01323433626352464</v>
       </c>
       <c r="G69">
-        <v>0.03818891742183074</v>
+        <v>-0.0420032611987198</v>
       </c>
       <c r="H69">
-        <v>0.004892205801540575</v>
+        <v>0.02448088927323754</v>
       </c>
       <c r="I69">
-        <v>0.01711541320216286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.026416752253583</v>
+      </c>
+      <c r="J69">
+        <v>0.001276299728854324</v>
+      </c>
+      <c r="K69">
+        <v>0.01230757588267517</v>
+      </c>
+      <c r="L69">
+        <v>0.01344929758394411</v>
+      </c>
+      <c r="M69">
+        <v>-0.06652368207983114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.03318527148313766</v>
+        <v>0.05617805226857651</v>
       </c>
       <c r="C70">
-        <v>-0.01022628014338922</v>
+        <v>-0.03966476075096455</v>
       </c>
       <c r="D70">
-        <v>0.007182964748199395</v>
+        <v>0.03115302459913176</v>
       </c>
       <c r="E70">
-        <v>-0.01485105759445418</v>
+        <v>-0.001170038742015994</v>
       </c>
       <c r="F70">
-        <v>0.006796113368679533</v>
+        <v>0.01263209382165306</v>
       </c>
       <c r="G70">
-        <v>-0.08829836573704705</v>
+        <v>0.04580961653285312</v>
       </c>
       <c r="H70">
-        <v>0.06058000307902915</v>
+        <v>0.06798360844787413</v>
       </c>
       <c r="I70">
-        <v>-0.01860389731549059</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-0.1083306383747919</v>
+      </c>
+      <c r="J70">
+        <v>0.01151605337310195</v>
+      </c>
+      <c r="K70">
+        <v>0.2105905880410043</v>
+      </c>
+      <c r="L70">
+        <v>-0.03740059841563208</v>
+      </c>
+      <c r="M70">
+        <v>-0.1798063488505245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1116584901673756</v>
+        <v>0.1351932451309222</v>
       </c>
       <c r="C71">
-        <v>0.2792458569852245</v>
+        <v>0.2813115885194477</v>
       </c>
       <c r="D71">
-        <v>-0.02805578808985556</v>
+        <v>0.007696555598842064</v>
       </c>
       <c r="E71">
-        <v>0.002548193560122656</v>
+        <v>0.02399045338428241</v>
       </c>
       <c r="F71">
-        <v>0.01988514374531214</v>
+        <v>-0.02099042871787029</v>
       </c>
       <c r="G71">
-        <v>-0.00166673378737651</v>
+        <v>-0.02387351828401172</v>
       </c>
       <c r="H71">
-        <v>0.02009883834375956</v>
+        <v>-0.0265721800560957</v>
       </c>
       <c r="I71">
-        <v>-0.00657388529766266</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.0295814275292938</v>
+      </c>
+      <c r="J71">
+        <v>-0.006902113663738552</v>
+      </c>
+      <c r="K71">
+        <v>0.01827436996557183</v>
+      </c>
+      <c r="L71">
+        <v>0.01019264628852642</v>
+      </c>
+      <c r="M71">
+        <v>0.005344546522840702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1841591965588215</v>
+        <v>0.1441051507583182</v>
       </c>
       <c r="C72">
-        <v>-0.05311493960269935</v>
+        <v>-0.03616426839788273</v>
       </c>
       <c r="D72">
-        <v>0.2140982669975603</v>
+        <v>-0.001861330041212011</v>
       </c>
       <c r="E72">
-        <v>0.01731810006909805</v>
+        <v>-0.1804221337496079</v>
       </c>
       <c r="F72">
-        <v>-0.02019057077734742</v>
+        <v>-0.06146859953518433</v>
       </c>
       <c r="G72">
-        <v>0.005664710780428642</v>
+        <v>-0.005569702484712058</v>
       </c>
       <c r="H72">
-        <v>-0.1185187177971326</v>
+        <v>0.05434113663402866</v>
       </c>
       <c r="I72">
-        <v>0.06419265947277622</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.04720740650564598</v>
+      </c>
+      <c r="J72">
+        <v>-0.144200442061245</v>
+      </c>
+      <c r="K72">
+        <v>-0.04564431112963812</v>
+      </c>
+      <c r="L72">
+        <v>0.07688218050097488</v>
+      </c>
+      <c r="M72">
+        <v>0.007078208528897476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2673378444965346</v>
+        <v>0.2363269941785767</v>
       </c>
       <c r="C73">
-        <v>-0.1824545344681624</v>
+        <v>-0.1567425590877342</v>
       </c>
       <c r="D73">
-        <v>-0.1590912451043622</v>
+        <v>0.1540690213218168</v>
       </c>
       <c r="E73">
-        <v>0.05999203789167783</v>
+        <v>0.08389230478313918</v>
       </c>
       <c r="F73">
-        <v>0.09341579742202862</v>
+        <v>0.3848490313031501</v>
       </c>
       <c r="G73">
-        <v>-0.1655265848313955</v>
+        <v>0.2259999823750389</v>
       </c>
       <c r="H73">
-        <v>-0.1585513749851912</v>
+        <v>0.01831405064113325</v>
       </c>
       <c r="I73">
-        <v>0.09036865026008821</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.3966230344507406</v>
+      </c>
+      <c r="J73">
+        <v>0.2313184129326217</v>
+      </c>
+      <c r="K73">
+        <v>-0.260673902178353</v>
+      </c>
+      <c r="L73">
+        <v>0.06112524910216387</v>
+      </c>
+      <c r="M73">
+        <v>0.1494387663099289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09043819210588436</v>
+        <v>0.08617680528728507</v>
       </c>
       <c r="C74">
-        <v>-0.02822672495963766</v>
+        <v>-0.06637652539900743</v>
       </c>
       <c r="D74">
-        <v>-0.02703438820006436</v>
+        <v>0.009072096923814912</v>
       </c>
       <c r="E74">
-        <v>0.03371416865194958</v>
+        <v>-0.00496959935624018</v>
       </c>
       <c r="F74">
-        <v>0.06283546701850747</v>
+        <v>0.03650126016022922</v>
       </c>
       <c r="G74">
-        <v>0.1592885119296252</v>
+        <v>-0.1496293952779284</v>
       </c>
       <c r="H74">
-        <v>-0.002620441382130657</v>
+        <v>0.005392538906463858</v>
       </c>
       <c r="I74">
-        <v>0.04028368373660717</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.04119531721374103</v>
+      </c>
+      <c r="J74">
+        <v>-0.02062160948102863</v>
+      </c>
+      <c r="K74">
+        <v>-0.01895279519648308</v>
+      </c>
+      <c r="L74">
+        <v>0.02975245393310855</v>
+      </c>
+      <c r="M74">
+        <v>0.03782175316567262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.1017404215522701</v>
+        <v>0.09184457216752166</v>
       </c>
       <c r="C75">
-        <v>-0.02238114180979201</v>
+        <v>-0.05060111205934961</v>
       </c>
       <c r="D75">
-        <v>-0.03133870771434427</v>
+        <v>0.009488445421770388</v>
       </c>
       <c r="E75">
-        <v>0.03283540643379438</v>
+        <v>-0.008552753710517577</v>
       </c>
       <c r="F75">
-        <v>-0.06239101787242509</v>
+        <v>0.02357210954621173</v>
       </c>
       <c r="G75">
-        <v>0.1051063508629277</v>
+        <v>-0.1215072999211217</v>
       </c>
       <c r="H75">
-        <v>0.04865932439683474</v>
+        <v>0.06602488839176068</v>
       </c>
       <c r="I75">
-        <v>0.06737869529380915</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>-0.0507296517503907</v>
+      </c>
+      <c r="J75">
+        <v>-0.01915540480609912</v>
+      </c>
+      <c r="K75">
+        <v>-0.04002261477867541</v>
+      </c>
+      <c r="L75">
+        <v>-0.001800108191309827</v>
+      </c>
+      <c r="M75">
+        <v>-0.05610994854819559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1313667344914472</v>
+        <v>0.099530870785189</v>
       </c>
       <c r="C76">
-        <v>-0.0379369908482942</v>
+        <v>-0.07096648474743555</v>
       </c>
       <c r="D76">
-        <v>-0.03342721494607712</v>
+        <v>0.008048150557395307</v>
       </c>
       <c r="E76">
-        <v>0.03406480613467235</v>
+        <v>0.008439605915597033</v>
       </c>
       <c r="F76">
-        <v>-0.02014428472697822</v>
+        <v>0.0594637409588166</v>
       </c>
       <c r="G76">
-        <v>0.2437005343003497</v>
+        <v>-0.2231427348113913</v>
       </c>
       <c r="H76">
-        <v>0.01693780505531941</v>
+        <v>0.06640434610500448</v>
       </c>
       <c r="I76">
-        <v>0.0813033852621807</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-0.01822822014480745</v>
+      </c>
+      <c r="J76">
+        <v>-0.06746182752760868</v>
+      </c>
+      <c r="K76">
+        <v>-0.03700532512515346</v>
+      </c>
+      <c r="L76">
+        <v>-0.003291488047735946</v>
+      </c>
+      <c r="M76">
+        <v>0.1405343853501493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.07815162778416415</v>
+        <v>0.07245927606577299</v>
       </c>
       <c r="C77">
-        <v>-0.03476300387883852</v>
+        <v>-0.0210438845513225</v>
       </c>
       <c r="D77">
-        <v>0.03324221694777684</v>
+        <v>0.004482423344371996</v>
       </c>
       <c r="E77">
-        <v>-0.3570630869030584</v>
+        <v>0.04939271554558545</v>
       </c>
       <c r="F77">
-        <v>-0.6630780637925332</v>
+        <v>-0.4959752648011663</v>
       </c>
       <c r="G77">
-        <v>-0.08930391490852539</v>
+        <v>0.3193512034003261</v>
       </c>
       <c r="H77">
-        <v>-0.4099064649526498</v>
+        <v>0.6570681789652053</v>
       </c>
       <c r="I77">
-        <v>-0.1607757901549197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.09486111205875492</v>
+      </c>
+      <c r="J77">
+        <v>0.03233598443074742</v>
+      </c>
+      <c r="K77">
+        <v>-0.05912351218262309</v>
+      </c>
+      <c r="L77">
+        <v>-0.01785478591070169</v>
+      </c>
+      <c r="M77">
+        <v>0.205220776206879</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1206903885592757</v>
+        <v>0.1757530524605813</v>
       </c>
       <c r="C78">
-        <v>-0.08981683637101474</v>
+        <v>-0.1116366266187195</v>
       </c>
       <c r="D78">
-        <v>-0.02088808264200808</v>
+        <v>-0.1785251247054407</v>
       </c>
       <c r="E78">
-        <v>-0.1516845172571815</v>
+        <v>0.1208259293960139</v>
       </c>
       <c r="F78">
-        <v>0.07990211285659482</v>
+        <v>-0.1230335745258667</v>
       </c>
       <c r="G78">
-        <v>-0.03385189898870005</v>
+        <v>0.1743524968701258</v>
       </c>
       <c r="H78">
-        <v>0.05699731719856106</v>
+        <v>-0.1670676244172694</v>
       </c>
       <c r="I78">
-        <v>-0.07290490563234632</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>-0.6036498826665484</v>
+      </c>
+      <c r="J78">
+        <v>-0.01959659471216241</v>
+      </c>
+      <c r="K78">
+        <v>-0.5100154732964189</v>
+      </c>
+      <c r="L78">
+        <v>0.04418247621625633</v>
+      </c>
+      <c r="M78">
+        <v>0.1470510495381715</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1445595988863158</v>
+        <v>0.1343968221106029</v>
       </c>
       <c r="C79">
-        <v>-0.05939555476056112</v>
+        <v>-0.07530291066394543</v>
       </c>
       <c r="D79">
-        <v>-0.03808502510082241</v>
+        <v>0.003192471583184956</v>
       </c>
       <c r="E79">
-        <v>0.0562274561016119</v>
+        <v>0.004377412469497946</v>
       </c>
       <c r="F79">
-        <v>-0.04805980559355433</v>
+        <v>0.004855304880057095</v>
       </c>
       <c r="G79">
-        <v>0.1598663682047537</v>
+        <v>-0.1795869233020749</v>
       </c>
       <c r="H79">
-        <v>0.05216002683846541</v>
+        <v>0.07219216640683808</v>
       </c>
       <c r="I79">
-        <v>0.03913941163262867</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>-0.005439138457447487</v>
+      </c>
+      <c r="J79">
+        <v>-0.0667386255755103</v>
+      </c>
+      <c r="K79">
+        <v>0.01434203382779083</v>
+      </c>
+      <c r="L79">
+        <v>0.03705332050178993</v>
+      </c>
+      <c r="M79">
+        <v>0.004954490730774101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.01592233668471716</v>
+        <v>0.05404943876504627</v>
       </c>
       <c r="C80">
-        <v>0.004527960512068756</v>
+        <v>-0.02110289745420021</v>
       </c>
       <c r="D80">
-        <v>0.01280279427423532</v>
+        <v>0.0656403612306793</v>
       </c>
       <c r="E80">
-        <v>0.004823841006873935</v>
+        <v>0.006616593035257382</v>
       </c>
       <c r="F80">
-        <v>0.03952580729022147</v>
+        <v>0.006210493518368526</v>
       </c>
       <c r="G80">
-        <v>0.01281605972108958</v>
+        <v>0.02827682866248399</v>
       </c>
       <c r="H80">
-        <v>-0.05099270950400599</v>
+        <v>-0.1472826741853083</v>
       </c>
       <c r="I80">
-        <v>0.04532583374419556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.005748999498171492</v>
+      </c>
+      <c r="J80">
+        <v>-0.003018110828289596</v>
+      </c>
+      <c r="K80">
+        <v>0.07114104250703332</v>
+      </c>
+      <c r="L80">
+        <v>-0.01388538881077577</v>
+      </c>
+      <c r="M80">
+        <v>-0.003900771177773137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1170263717247092</v>
+        <v>0.1203484307144716</v>
       </c>
       <c r="C81">
-        <v>-0.0494560477972178</v>
+        <v>-0.05184018171950522</v>
       </c>
       <c r="D81">
-        <v>-0.04533268026269903</v>
+        <v>0.002253001188756585</v>
       </c>
       <c r="E81">
-        <v>0.04374279868682985</v>
+        <v>0.00564508433049523</v>
       </c>
       <c r="F81">
-        <v>-0.02175857422999505</v>
+        <v>-0.005908015151706094</v>
       </c>
       <c r="G81">
-        <v>0.1033646229307534</v>
+        <v>-0.1791249595788797</v>
       </c>
       <c r="H81">
-        <v>0.01315695837158623</v>
+        <v>0.03367169090714602</v>
       </c>
       <c r="I81">
-        <v>0.03346835881392732</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-0.00782580479004372</v>
+      </c>
+      <c r="J81">
+        <v>0.005254502871202433</v>
+      </c>
+      <c r="K81">
+        <v>-0.01469502046037927</v>
+      </c>
+      <c r="L81">
+        <v>-0.01433716202090426</v>
+      </c>
+      <c r="M81">
+        <v>-0.03698140612738645</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1108959197075153</v>
+        <v>0.1168995218828957</v>
       </c>
       <c r="C82">
-        <v>-0.03635135730795886</v>
+        <v>-0.05342814795012279</v>
       </c>
       <c r="D82">
-        <v>-0.06813175682755956</v>
+        <v>0.02345069629524408</v>
       </c>
       <c r="E82">
-        <v>0.1010584125046186</v>
+        <v>-0.0009261189609595539</v>
       </c>
       <c r="F82">
-        <v>-0.0666222064704942</v>
+        <v>0.03904673343697675</v>
       </c>
       <c r="G82">
-        <v>0.2644208714947734</v>
+        <v>-0.2503742694777299</v>
       </c>
       <c r="H82">
-        <v>0.06815017184593343</v>
+        <v>0.06049702348703487</v>
       </c>
       <c r="I82">
-        <v>0.0002961714042568825</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-0.03966274137274293</v>
+      </c>
+      <c r="J82">
+        <v>0.01020512659381114</v>
+      </c>
+      <c r="K82">
+        <v>0.04877538719489009</v>
+      </c>
+      <c r="L82">
+        <v>0.03798317359257845</v>
+      </c>
+      <c r="M82">
+        <v>0.01050223971620599</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.04960389477021177</v>
+        <v>0.07474726917312993</v>
       </c>
       <c r="C83">
-        <v>-0.03162505117108599</v>
+        <v>-0.06164300916118356</v>
       </c>
       <c r="D83">
-        <v>-0.0342785148153839</v>
+        <v>0.0116622511649228</v>
       </c>
       <c r="E83">
-        <v>0.01497277315776374</v>
+        <v>0.02020811133025049</v>
       </c>
       <c r="F83">
-        <v>-0.01292984713782308</v>
+        <v>0.008770970709852083</v>
       </c>
       <c r="G83">
-        <v>-0.09510747264058658</v>
+        <v>0.01907601961172407</v>
       </c>
       <c r="H83">
-        <v>0.05241919769928251</v>
+        <v>0.004727591424595936</v>
       </c>
       <c r="I83">
-        <v>-0.05600933758349518</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.01921097961426194</v>
+      </c>
+      <c r="J83">
+        <v>0.03535666833539008</v>
+      </c>
+      <c r="K83">
+        <v>0.1926658998637119</v>
+      </c>
+      <c r="L83">
+        <v>-0.06469632375534549</v>
+      </c>
+      <c r="M83">
+        <v>-0.07828555270767906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05403074109797861</v>
+        <v>0.04291409374315154</v>
       </c>
       <c r="C84">
-        <v>-0.03065922057312674</v>
+        <v>0.02184427549404716</v>
       </c>
       <c r="D84">
-        <v>0.01327391191002577</v>
+        <v>0.002541901274872635</v>
       </c>
       <c r="E84">
-        <v>0.01138225112551397</v>
+        <v>-0.03055639323253033</v>
       </c>
       <c r="F84">
-        <v>0.1200576343010546</v>
+        <v>-0.02600034555199376</v>
       </c>
       <c r="G84">
-        <v>0.02195819950997024</v>
+        <v>0.1377124667623498</v>
       </c>
       <c r="H84">
-        <v>0.07009103062823739</v>
+        <v>-0.259448054922019</v>
       </c>
       <c r="I84">
-        <v>-0.03740798262765092</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-0.1306171186139418</v>
+      </c>
+      <c r="J84">
+        <v>0.1444800499973453</v>
+      </c>
+      <c r="K84">
+        <v>0.2190487857952447</v>
+      </c>
+      <c r="L84">
+        <v>0.2527210128881139</v>
+      </c>
+      <c r="M84">
+        <v>0.366508476996477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.07916842636775516</v>
+        <v>0.1069365277186099</v>
       </c>
       <c r="C85">
-        <v>-0.0423365526190331</v>
+        <v>-0.05303938146365145</v>
       </c>
       <c r="D85">
-        <v>-0.06087736857098738</v>
+        <v>0.0166534570549983</v>
       </c>
       <c r="E85">
-        <v>0.02297523323527698</v>
+        <v>0.03379853759311918</v>
       </c>
       <c r="F85">
-        <v>-0.02517423153945545</v>
+        <v>0.003830851262436301</v>
       </c>
       <c r="G85">
-        <v>0.1783870873068371</v>
+        <v>-0.1860325210292653</v>
       </c>
       <c r="H85">
-        <v>0.001404403436686989</v>
+        <v>0.05779771121894745</v>
       </c>
       <c r="I85">
-        <v>0.05478582600105131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>-0.009777399752403404</v>
+      </c>
+      <c r="J85">
+        <v>-0.06224512049136827</v>
+      </c>
+      <c r="K85">
+        <v>-0.01865538041249666</v>
+      </c>
+      <c r="L85">
+        <v>0.05782422209311822</v>
+      </c>
+      <c r="M85">
+        <v>0.00036381508010512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03823190101499555</v>
+        <v>0.07076039847007917</v>
       </c>
       <c r="C86">
-        <v>-0.0506023516591684</v>
+        <v>-0.02482490132443295</v>
       </c>
       <c r="D86">
-        <v>-0.006558091769145239</v>
+        <v>-0.01039158690214862</v>
       </c>
       <c r="E86">
-        <v>-0.04795782450321182</v>
+        <v>0.03944625019633101</v>
       </c>
       <c r="F86">
-        <v>-0.01637390886919762</v>
+        <v>-0.08511950914332533</v>
       </c>
       <c r="G86">
-        <v>-0.03435855502079887</v>
+        <v>0.1155327268905865</v>
       </c>
       <c r="H86">
-        <v>-0.0837708293082689</v>
+        <v>-0.1280771747956076</v>
       </c>
       <c r="I86">
-        <v>0.08141619147596958</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.1342101379464957</v>
+      </c>
+      <c r="J86">
+        <v>0.1151868524771977</v>
+      </c>
+      <c r="K86">
+        <v>0.1480875275298756</v>
+      </c>
+      <c r="L86">
+        <v>0.5105753664564306</v>
+      </c>
+      <c r="M86">
+        <v>-0.162155924814861</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09219243344026251</v>
+        <v>0.1120397392267277</v>
       </c>
       <c r="C87">
-        <v>-0.0686433424397194</v>
+        <v>-0.06780283533306586</v>
       </c>
       <c r="D87">
-        <v>-0.01996543133598009</v>
+        <v>-0.03506357714600482</v>
       </c>
       <c r="E87">
-        <v>-0.1592700828197045</v>
+        <v>0.03143820786050711</v>
       </c>
       <c r="F87">
-        <v>-0.1109508239252636</v>
+        <v>-0.1626011758464982</v>
       </c>
       <c r="G87">
-        <v>-0.01647844793874609</v>
+        <v>0.1227876970726906</v>
       </c>
       <c r="H87">
-        <v>-0.07525382360101651</v>
+        <v>0.09463993478595731</v>
       </c>
       <c r="I87">
-        <v>-0.09794495410257097</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.03508242994452779</v>
+      </c>
+      <c r="J87">
+        <v>0.0350562026937344</v>
+      </c>
+      <c r="K87">
+        <v>0.08400518274430746</v>
+      </c>
+      <c r="L87">
+        <v>-0.01271608203238554</v>
+      </c>
+      <c r="M87">
+        <v>0.06233686253879075</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04626354322609669</v>
+        <v>0.05725585335155436</v>
       </c>
       <c r="C88">
-        <v>-0.03864716253489621</v>
+        <v>-0.05317343160938893</v>
       </c>
       <c r="D88">
-        <v>-0.01936322673034344</v>
+        <v>0.02978005089356661</v>
       </c>
       <c r="E88">
-        <v>-0.004330062705646168</v>
+        <v>0.01774241403226301</v>
       </c>
       <c r="F88">
-        <v>0.004196650877534265</v>
+        <v>-0.02557889321376428</v>
       </c>
       <c r="G88">
-        <v>-0.02180745216962446</v>
+        <v>-0.02371998574453604</v>
       </c>
       <c r="H88">
-        <v>0.001356452522951238</v>
+        <v>-0.03409119997589219</v>
       </c>
       <c r="I88">
-        <v>-0.04161235573919054</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.02708976962841151</v>
+      </c>
+      <c r="J88">
+        <v>0.02974503365948561</v>
+      </c>
+      <c r="K88">
+        <v>0.01794365558724374</v>
+      </c>
+      <c r="L88">
+        <v>-0.002847983806592647</v>
+      </c>
+      <c r="M88">
+        <v>-0.02471434908204396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1754848768165012</v>
+        <v>0.2175341752721694</v>
       </c>
       <c r="C89">
-        <v>0.3174581518765514</v>
+        <v>0.3554138580359146</v>
       </c>
       <c r="D89">
-        <v>-0.06683924802362469</v>
+        <v>-0.04465822188474107</v>
       </c>
       <c r="E89">
-        <v>-0.08630366025878942</v>
+        <v>0.08398982500257185</v>
       </c>
       <c r="F89">
-        <v>0.01119549966513092</v>
+        <v>-0.006766195071616103</v>
       </c>
       <c r="G89">
-        <v>-0.03063463275878289</v>
+        <v>-0.009406093746068907</v>
       </c>
       <c r="H89">
-        <v>0.02628978755152685</v>
+        <v>-0.0260511022150047</v>
       </c>
       <c r="I89">
-        <v>0.02173522457219743</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.004026155391994263</v>
+      </c>
+      <c r="J89">
+        <v>0.06146923066809671</v>
+      </c>
+      <c r="K89">
+        <v>-0.03645693408859819</v>
+      </c>
+      <c r="L89">
+        <v>-0.08756777909691059</v>
+      </c>
+      <c r="M89">
+        <v>-0.07841217561243782</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.131483642114715</v>
+        <v>0.1487892856270454</v>
       </c>
       <c r="C90">
-        <v>0.2716255295227398</v>
+        <v>0.2676591042562232</v>
       </c>
       <c r="D90">
-        <v>0.001902371084060039</v>
+        <v>0.005200032511073691</v>
       </c>
       <c r="E90">
-        <v>-0.063052425432541</v>
+        <v>0.02028497554699228</v>
       </c>
       <c r="F90">
-        <v>0.001116520930966819</v>
+        <v>-0.02872402481610177</v>
       </c>
       <c r="G90">
-        <v>-0.02207642881301693</v>
+        <v>0.01931579605279057</v>
       </c>
       <c r="H90">
-        <v>-0.04034637546710957</v>
+        <v>-0.02014335508092547</v>
       </c>
       <c r="I90">
-        <v>-0.07212866663589267</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.05196106645373311</v>
+      </c>
+      <c r="J90">
+        <v>0.02215641603592758</v>
+      </c>
+      <c r="K90">
+        <v>0.001374219280450482</v>
+      </c>
+      <c r="L90">
+        <v>-0.01088129433919616</v>
+      </c>
+      <c r="M90">
+        <v>0.04055192430583112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08472933236491842</v>
+        <v>0.07551789756203138</v>
       </c>
       <c r="C91">
-        <v>-0.03644282908117651</v>
+        <v>-0.05218155017090685</v>
       </c>
       <c r="D91">
-        <v>-0.02040719333975885</v>
+        <v>-0.009778320444564068</v>
       </c>
       <c r="E91">
-        <v>0.003614966030556363</v>
+        <v>0.003805465117677395</v>
       </c>
       <c r="F91">
-        <v>-0.01429738025450857</v>
+        <v>0.01817548078507097</v>
       </c>
       <c r="G91">
-        <v>0.110154411430041</v>
+        <v>-0.1027554577964103</v>
       </c>
       <c r="H91">
-        <v>0.02387746035028129</v>
+        <v>0.04162562521033703</v>
       </c>
       <c r="I91">
-        <v>0.05176687070211967</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>-0.02180670280432036</v>
+      </c>
+      <c r="J91">
+        <v>-0.007000285893922865</v>
+      </c>
+      <c r="K91">
+        <v>-0.05569554600998702</v>
+      </c>
+      <c r="L91">
+        <v>-0.02876867917054409</v>
+      </c>
+      <c r="M91">
+        <v>0.006298083400366947</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1529131070595267</v>
+        <v>0.168349616707269</v>
       </c>
       <c r="C92">
-        <v>0.3096831423172382</v>
+        <v>0.3066842500256619</v>
       </c>
       <c r="D92">
-        <v>-0.04577292191542937</v>
+        <v>-0.02861903158621778</v>
       </c>
       <c r="E92">
-        <v>-0.02240401464100805</v>
+        <v>0.04907754552481644</v>
       </c>
       <c r="F92">
-        <v>0.06986071716142095</v>
+        <v>-1.02411943967892e-05</v>
       </c>
       <c r="G92">
-        <v>-0.009715626570834518</v>
+        <v>-0.03121321288558176</v>
       </c>
       <c r="H92">
-        <v>0.03982378439106194</v>
+        <v>-0.03151804473514136</v>
       </c>
       <c r="I92">
-        <v>0.001792386155571141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.01090213433314783</v>
+      </c>
+      <c r="J92">
+        <v>0.02415569042110685</v>
+      </c>
+      <c r="K92">
+        <v>-0.02480993971583826</v>
+      </c>
+      <c r="L92">
+        <v>0.001537650282041605</v>
+      </c>
+      <c r="M92">
+        <v>-0.02303720656089224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1436142385918551</v>
+        <v>0.1644072036556225</v>
       </c>
       <c r="C93">
-        <v>0.2466836857128295</v>
+        <v>0.288228649605882</v>
       </c>
       <c r="D93">
-        <v>-0.01866688487051227</v>
+        <v>0.02687251544395215</v>
       </c>
       <c r="E93">
-        <v>-0.02509521402276375</v>
+        <v>0.005355148554619336</v>
       </c>
       <c r="F93">
-        <v>0.01139650251029816</v>
+        <v>-0.01008040922185586</v>
       </c>
       <c r="G93">
-        <v>-0.05181718115354564</v>
+        <v>0.0001788012731349382</v>
       </c>
       <c r="H93">
-        <v>-0.003341000237483421</v>
+        <v>-0.02067537090897081</v>
       </c>
       <c r="I93">
-        <v>-0.02886235267447826</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.01986319773298446</v>
+      </c>
+      <c r="J93">
+        <v>0.01398575257525073</v>
+      </c>
+      <c r="K93">
+        <v>0.05659734526487595</v>
+      </c>
+      <c r="L93">
+        <v>0.01209930812133397</v>
+      </c>
+      <c r="M93">
+        <v>0.004566500103870574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.0884233382747268</v>
+        <v>0.1048790541396642</v>
       </c>
       <c r="C94">
-        <v>-0.06647597097023143</v>
+        <v>-0.07684455529203792</v>
       </c>
       <c r="D94">
-        <v>-0.02384528456292744</v>
+        <v>-0.0127608710138072</v>
       </c>
       <c r="E94">
-        <v>0.005101237435520207</v>
+        <v>0.02087107576122253</v>
       </c>
       <c r="F94">
-        <v>-0.02893146904424644</v>
+        <v>0.04015796957775559</v>
       </c>
       <c r="G94">
-        <v>0.1499984508853022</v>
+        <v>-0.1306220675376999</v>
       </c>
       <c r="H94">
-        <v>0.07002752705074526</v>
+        <v>0.02939236472376164</v>
       </c>
       <c r="I94">
-        <v>0.1071729212990032</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>-0.02773905628719666</v>
+      </c>
+      <c r="J94">
+        <v>-0.01982222770673312</v>
+      </c>
+      <c r="K94">
+        <v>-0.04163959736744866</v>
+      </c>
+      <c r="L94">
+        <v>-0.01220016717159566</v>
+      </c>
+      <c r="M94">
+        <v>-0.05187434682267883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.09761940877753303</v>
+        <v>0.1359070357398748</v>
       </c>
       <c r="C95">
-        <v>-0.09209783480531093</v>
+        <v>-0.07317714590851289</v>
       </c>
       <c r="D95">
-        <v>-0.08940237080810715</v>
+        <v>-0.008153940964051868</v>
       </c>
       <c r="E95">
-        <v>-0.02604565419975695</v>
+        <v>0.06645688497583742</v>
       </c>
       <c r="F95">
-        <v>0.04451898288254182</v>
+        <v>-0.0613093109802435</v>
       </c>
       <c r="G95">
-        <v>-0.006780093385424607</v>
+        <v>0.1608426003979726</v>
       </c>
       <c r="H95">
-        <v>-0.04705331411647114</v>
+        <v>-0.1444464366808129</v>
       </c>
       <c r="I95">
-        <v>-0.04437778300631191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1043789329906421</v>
+      </c>
+      <c r="J95">
+        <v>0.03539547545460745</v>
+      </c>
+      <c r="K95">
+        <v>0.05923208065865914</v>
+      </c>
+      <c r="L95">
+        <v>0.2095603708227561</v>
+      </c>
+      <c r="M95">
+        <v>-0.2680489294913658</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.3129599531810541</v>
+        <v>0.1714930594505834</v>
       </c>
       <c r="C97">
-        <v>-0.06209405675685459</v>
+        <v>-0.008105337061424559</v>
       </c>
       <c r="D97">
-        <v>0.8709176068522997</v>
+        <v>-0.105760544957277</v>
       </c>
       <c r="E97">
-        <v>0.142775815064278</v>
+        <v>-0.9358814648770499</v>
       </c>
       <c r="F97">
-        <v>0.05679441440891895</v>
+        <v>-0.05201268138171634</v>
       </c>
       <c r="G97">
-        <v>-0.07546338589823992</v>
+        <v>0.06931743033808831</v>
       </c>
       <c r="H97">
-        <v>-0.05226662254302235</v>
+        <v>-0.04381815603343315</v>
       </c>
       <c r="I97">
-        <v>0.001993915019501646</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.001431630704516497</v>
+      </c>
+      <c r="J97">
+        <v>0.06415608735357188</v>
+      </c>
+      <c r="K97">
+        <v>-0.05583695351643774</v>
+      </c>
+      <c r="L97">
+        <v>-0.01655197456110205</v>
+      </c>
+      <c r="M97">
+        <v>-0.01478149800372799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2583367783620802</v>
+        <v>0.2621018016495203</v>
       </c>
       <c r="C98">
-        <v>-0.1010828580266735</v>
+        <v>-0.1212296244690532</v>
       </c>
       <c r="D98">
-        <v>-0.1674053446768244</v>
+        <v>0.01818942685461453</v>
       </c>
       <c r="E98">
-        <v>0.2930151285483081</v>
+        <v>0.00697018830573244</v>
       </c>
       <c r="F98">
-        <v>0.05785944978727021</v>
+        <v>0.4079447393527061</v>
       </c>
       <c r="G98">
-        <v>-0.532721014589983</v>
+        <v>0.3072252738409691</v>
       </c>
       <c r="H98">
-        <v>0.2849990371421434</v>
+        <v>0.1485321344026169</v>
       </c>
       <c r="I98">
-        <v>-0.1783893980956339</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>-0.3865911252783345</v>
+      </c>
+      <c r="J98">
+        <v>-0.0136932945426969</v>
+      </c>
+      <c r="K98">
+        <v>0.3446233533080678</v>
+      </c>
+      <c r="L98">
+        <v>-0.4111557198511421</v>
+      </c>
+      <c r="M98">
+        <v>0.0430947621725281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.05871663591336621</v>
+        <v>0.0704952270050646</v>
       </c>
       <c r="C99">
-        <v>-0.04435647966673635</v>
+        <v>-0.05326466613205708</v>
       </c>
       <c r="D99">
-        <v>0.03339076719673786</v>
+        <v>-0.02591019309366182</v>
       </c>
       <c r="E99">
-        <v>-0.0172676213988685</v>
+        <v>0.01034299845139238</v>
       </c>
       <c r="F99">
-        <v>-0.5663886702887081</v>
+        <v>-0.0005546202762749115</v>
       </c>
       <c r="G99">
-        <v>-0.123574539262579</v>
+        <v>-0.04667800062027782</v>
       </c>
       <c r="H99">
-        <v>0.6033846468963174</v>
+        <v>0.2974569052013887</v>
       </c>
       <c r="I99">
-        <v>0.3596783052947465</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>-0.1661795105971208</v>
+      </c>
+      <c r="J99">
+        <v>0.2008526718677317</v>
+      </c>
+      <c r="K99">
+        <v>-0.01325875861868193</v>
+      </c>
+      <c r="L99">
+        <v>0.06217717882242008</v>
+      </c>
+      <c r="M99">
+        <v>-0.6363815706509612</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04592302745691852</v>
+        <v>0.04464500688329429</v>
       </c>
       <c r="C101">
-        <v>-0.01504931119792567</v>
+        <v>-0.02362793041382532</v>
       </c>
       <c r="D101">
-        <v>-0.01190327712620019</v>
+        <v>0.0008734068538917876</v>
       </c>
       <c r="E101">
-        <v>-0.02724914798035631</v>
+        <v>0.01938617328776472</v>
       </c>
       <c r="F101">
-        <v>0.03450445364008375</v>
+        <v>-0.04690425081002413</v>
       </c>
       <c r="G101">
-        <v>0.01064041190745114</v>
+        <v>-0.05392168757590444</v>
       </c>
       <c r="H101">
-        <v>-0.01820604620791381</v>
+        <v>-0.04501297960681483</v>
       </c>
       <c r="I101">
-        <v>-0.005575849622502705</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.0001067601722258598</v>
+      </c>
+      <c r="J101">
+        <v>-0.02578966010332885</v>
+      </c>
+      <c r="K101">
+        <v>0.0404826392284849</v>
+      </c>
+      <c r="L101">
+        <v>-0.01681975923537378</v>
+      </c>
+      <c r="M101">
+        <v>0.01192657540560699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
